--- a/BiShang/ad/es/download_data/商品推广广告商品报告.xlsx
+++ b/BiShang/ad/es/download_data/商品推广广告商品报告.xlsx
@@ -84,11 +84,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.29296875" customWidth="true"/>
     <col min="4" max="4" width="17.94921875" customWidth="true"/>
-    <col min="5" max="5" width="11.62109375" customWidth="true"/>
+    <col min="5" max="5" width="7.80859375" customWidth="true"/>
     <col min="6" max="6" width="24.640625" customWidth="true"/>
     <col min="7" max="7" width="13.6953125" customWidth="true"/>
     <col min="8" max="8" width="6.6875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.65234375" customWidth="true"/>
+    <col min="18" max="18" width="9.6171875" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -253,19 +253,19 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3147.0</v>
+        <v>2949.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>9.532888465204957E-4</v>
+        <v>0.003051881993896236</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>0.06333333333333334</v>
+        <v>0.04555555555555555</v>
       </c>
       <c r="L2" s="9" t="n">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="M2" s="9" t="n">
         <v>0.0</v>
@@ -298,10 +298,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -329,57 +329,55 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1127.0</v>
+        <v>2734.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.010647737355811891</v>
+        <v>0.008046817849305048</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0.08416666666666667</v>
+        <v>0.08363636363636363</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0.06316447779862414</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N3"/>
       <c r="O3" s="5" t="n">
-        <v>15.831683168316832</v>
+        <v>0.0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>0.08333333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U3" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>15.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -407,30 +405,36 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>171.0</v>
+        <v>243.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4"/>
+        <v>0.012345679012345678</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.07666666666666666</v>
+      </c>
       <c r="L4" s="9" t="n">
-        <v>0.0</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
+      <c r="O4" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P4" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R4"/>
+      <c r="R4" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S4" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -446,10 +450,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -463,69 +467,71 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>17015</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>BS-WHC19-W0-S</t>
+          <t>BS-WH17015-C0-M</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B072FQR5MZ</t>
+          <t>B071GTKCRD</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>481.0</v>
+        <v>3584.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.006237006237006237</v>
+        <v>0.005859375</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0.07</v>
+        <v>0.13714285714285715</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>0.21000000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="M5" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5"/>
+        <v>18.88</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.15254237288135594</v>
+      </c>
       <c r="O5" s="5" t="n">
-        <v>0.0</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>0.0</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" s="9" t="n">
-        <v>0.0</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -544,66 +550,64 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-C0-M</t>
+          <t>BS-WH17015-K0-M</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B071GTKCRD</t>
+          <t>B071GTJSMZ</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1507.0</v>
+        <v>3003.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.0</v>
+        <v>49.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.011280690112806902</v>
+        <v>0.016317016317016316</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.13117647058823528</v>
+        <v>0.12142857142857141</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>2.23</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>37.87</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.05888566147346184</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N6"/>
       <c r="O6" s="5" t="n">
-        <v>16.982062780269057</v>
+        <v>0.0</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" s="9" t="n">
-        <v>37.87</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -622,66 +626,66 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-K0-M</t>
+          <t>BS-WH17015-P0-M</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B071GTJSMZ</t>
+          <t>B071KFGNBJ</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>4428.0</v>
+        <v>7767.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>62.0</v>
+        <v>44.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.014001806684733513</v>
+        <v>0.005664992918758852</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>0.11516129032258066</v>
+        <v>0.13113636363636363</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>7.140000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>37.87</v>
+        <v>56.97</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.18853974121996306</v>
+        <v>0.10128137616289275</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>5.30392156862745</v>
+        <v>9.873483535528596</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U7" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>37.87</v>
+        <v>56.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -700,28 +704,28 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-P0-M</t>
+          <t>BS-WH17015-ZL-M</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B071KFGNBJ</t>
+          <t>B072N7VJKP</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1158.0</v>
+        <v>12301.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.0</v>
+        <v>115.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.008635578583765112</v>
+        <v>0.009348833428176571</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0.147</v>
+        <v>0.1274782608695652</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0.0</v>
@@ -754,10 +758,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -766,76 +770,68 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>17015</t>
+          <t>084</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-ZL-M</t>
+          <t>CS-LY084-H10-S</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B072N7VJKP</t>
+          <t>B06XPV79C5</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25283.0</v>
+        <v>37.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>127.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.005023138076968714</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0.12015748031496062</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K9"/>
       <c r="L9" s="9" t="n">
-        <v>15.26</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="9" t="n">
-        <v>75.74</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.2014787430683919</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>4.963302752293577</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>0.031496062992125984</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R9"/>
       <c r="S9" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" s="9" t="n">
-        <v>75.74</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -854,16 +850,16 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H10-S</t>
+          <t>CS-LY084-H12-S</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B06XPV79C5</t>
+          <t>B06XPTLB92</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>93.0</v>
+        <v>9.0</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0.0</v>
@@ -902,10 +898,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43281.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -924,16 +920,16 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H12-S</t>
+          <t>CS-LY084-H16-S</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B06XPTLB92</t>
+          <t>B06XYLG2DN</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>0.0</v>
@@ -972,10 +968,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -989,44 +985,50 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H16-S</t>
+          <t>CS-LY181-WR917-S</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B06XYLG2DN</t>
+          <t>B073PQP9C9</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>12.0</v>
+        <v>909.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12"/>
+        <v>0.0033003300330033004</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0.1366666666666667</v>
+      </c>
       <c r="L12" s="9" t="n">
-        <v>0.0</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="M12" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
+      <c r="O12" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P12" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R12"/>
+      <c r="R12" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S12" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1059,33 +1061,33 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-WR917-S</t>
+          <t>CS-LY170-G912-S</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B073PQP9C9</t>
+          <t>B073PPVWW3</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1274.0</v>
+        <v>32.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.002354788069073783</v>
+        <v>0.03125</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>0.21999999999999997</v>
+        <v>0.08</v>
       </c>
       <c r="L13" s="9" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>0.0</v>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1140,28 +1142,28 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>CS-LY170-G912-S</t>
+          <t>CS-LY170-PI908-S</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B073PPVWW3</t>
+          <t>B073PQMGW1</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>77.0</v>
+        <v>117.0</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.012987012987012986</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0.0</v>
@@ -1194,10 +1196,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1211,21 +1213,21 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>085</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>CS-LY170-PI908-S</t>
+          <t>CS-LY085-G912-S</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B073PQMGW1</t>
+          <t>B06XYZW1W4</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>143.0</v>
+        <v>274.0</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0.0</v>
@@ -1264,10 +1266,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1286,16 +1288,16 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>CS-LY085-G912-S</t>
+          <t>CS-LY085-ZL918-S</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B06XYZW1W4</t>
+          <t>B06XZ1D6S1</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>263.0</v>
+        <v>50.0</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0.0</v>
@@ -1334,10 +1336,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1346,49 +1348,55 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>085</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>CS-LY085-ZL918-S</t>
+          <t>YZ-BS-1580-K0-M</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B06XZ1D6S1</t>
+          <t>B01NBES3YP</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>54.0</v>
+        <v>1085.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K17"/>
+        <v>0.002764976958525346</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0.056666666666666664</v>
+      </c>
       <c r="L17" s="9" t="n">
-        <v>0.0</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N17"/>
-      <c r="O17"/>
+      <c r="O17" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R17"/>
+      <c r="R17" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1404,10 +1412,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1435,19 +1443,19 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>2292.0</v>
+        <v>1118.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.005235602094240838</v>
+        <v>0.008050089445438283</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>0.09416666666666668</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>1.1300000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0.0</v>
@@ -1480,10 +1488,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1511,7 +1519,7 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0.0</v>
@@ -1550,10 +1558,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1581,7 +1589,7 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0.0</v>
@@ -1620,10 +1628,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1651,7 +1659,7 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0.0</v>
@@ -1690,10 +1698,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1721,57 +1729,55 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>1589.0</v>
+        <v>1120.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0018879798615481435</v>
+        <v>0.00625</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>0.056666666666666664</v>
+        <v>0.06285714285714286</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0.16999999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="M22" s="9" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.017171717171717168</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N22"/>
       <c r="O22" s="5" t="n">
-        <v>58.235294117647065</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" s="6" t="n">
-        <v>0.33333333333333326</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" s="9" t="n">
-        <v>9.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1799,19 +1805,19 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>1240.0</v>
+        <v>1285.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0024193548387096775</v>
+        <v>7.782101167315176E-4</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="M23" s="9" t="n">
         <v>0.0</v>
@@ -1844,10 +1850,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1875,19 +1881,19 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>232.0</v>
+        <v>1305.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.004310344827586207</v>
+        <v>0.0015325670498084294</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0.0</v>
@@ -1920,10 +1926,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1951,19 +1957,19 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>45.0</v>
+        <v>76.0</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.013157894736842105</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="M25" s="9" t="n">
         <v>0.0</v>
@@ -1996,10 +2002,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2027,36 +2033,30 @@
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>400.0</v>
+        <v>187.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>0.095</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" s="9" t="n">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N26"/>
-      <c r="O26" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O26"/>
       <c r="P26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R26"/>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2103,19 +2103,19 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>2057.0</v>
+        <v>7673.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.008264462809917356</v>
+        <v>0.003258178026847387</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>0.07823529411764707</v>
+        <v>0.0684</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="M27" s="9" t="n">
         <v>0.0</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2179,19 +2179,19 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>3007.0</v>
+        <v>3244.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.004655803126039242</v>
+        <v>0.006781750924784217</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>0.11357142857142857</v>
+        <v>0.10772727272727273</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>0.0</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>1402.0</v>
+        <v>1599.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0028530670470756064</v>
+        <v>0.0050031269543464665</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>0.1275</v>
+        <v>0.13</v>
       </c>
       <c r="L29" s="9" t="n">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>0.0</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2331,30 +2331,36 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>76.0</v>
+        <v>116.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30"/>
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0.06</v>
+      </c>
       <c r="L30" s="9" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30"/>
+      <c r="R30" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2370,10 +2376,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2401,19 +2407,19 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>282.0</v>
+        <v>115.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.0070921985815602835</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>0.085</v>
+        <v>0.09</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="M31" s="9" t="n">
         <v>0.0</v>
@@ -2446,10 +2452,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2477,7 +2483,7 @@
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>290.0</v>
+        <v>174.0</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>0.0</v>
@@ -2516,10 +2522,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2547,19 +2553,19 @@
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>561.0</v>
+        <v>600.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0035650623885918</v>
+        <v>0.005</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>0.05</v>
+        <v>0.07333333333333335</v>
       </c>
       <c r="L33" s="9" t="n">
-        <v>0.1</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="M33" s="9" t="n">
         <v>0.0</v>
@@ -2592,10 +2598,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2623,55 +2629,57 @@
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>1463.0</v>
+        <v>2721.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.004784688995215311</v>
+        <v>0.005145167217934583</v>
       </c>
       <c r="K34" s="9" t="n">
         <v>0.07571428571428572</v>
       </c>
       <c r="L34" s="9" t="n">
-        <v>0.53</v>
+        <v>1.06</v>
       </c>
       <c r="M34" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N34"/>
+        <v>12.0</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0.08833333333333333</v>
+      </c>
       <c r="O34" s="5" t="n">
-        <v>0.0</v>
+        <v>11.320754716981131</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R34" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U34" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2680,26 +2688,26 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>CFY-M1798</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>CFY-M1798-AG-M</t>
+          <t>CS-LY166-B28-5-L</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B076SVVHPQ</t>
+          <t>B071P6G6FV</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>166.0</v>
+        <v>126.0</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>0.0</v>
@@ -2738,10 +2746,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2760,28 +2768,28 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-B28-5-L</t>
+          <t>CS-LY166-K73-2-XL</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B071P6G6FV</t>
+          <t>B072LTDQRC</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>384.0</v>
+        <v>299.0</v>
       </c>
       <c r="I36" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.002604166666666666</v>
+        <v>0.0033444816053511705</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="L36" s="9" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="M36" s="9" t="n">
         <v>0.0</v>
@@ -2814,10 +2822,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2826,49 +2834,55 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1010-AUTO</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-K73-2-XL</t>
+          <t>LYQ-BS-K1010-G7-XL</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B072LTDQRC</t>
+          <t>B06XZ42T58</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>107.0</v>
+        <v>537.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K37"/>
+        <v>0.00931098696461825</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>0.07599999999999998</v>
+      </c>
       <c r="L37" s="9" t="n">
-        <v>0.0</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="M37" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37"/>
+      <c r="O37" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37"/>
+      <c r="R37" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2884,10 +2898,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2906,64 +2920,66 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G7-XL</t>
+          <t>LYQ-BS-K1010-G0-M</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B06XZ42T58</t>
+          <t>B01MQPQHB5</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>520.0</v>
+        <v>354.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.00847457627118644</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>0.08</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M38" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38"/>
+        <v>9.9</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0.010101010101010102</v>
+      </c>
       <c r="O38" s="5" t="n">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>0.0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U38" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" s="9" t="n">
-        <v>0.0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -2972,38 +2988,38 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>1010-AUTO</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>CS04</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G0-M</t>
+          <t>LYQ-BS-CS04-CO-XL</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B01MQPQHB5</t>
+          <t>B0761QMY9L</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>458.0</v>
+        <v>1099.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.008733624454148471</v>
+        <v>9.099181073703368E-4</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>0.045</v>
+        <v>0.08</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="M39" s="9" t="n">
         <v>0.0</v>
@@ -3036,10 +3052,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3058,39 +3074,45 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-CO-XL</t>
+          <t>LYQ-BS-CS04-G0-L</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B0761QMY9L</t>
+          <t>B0761RKMPH</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>610.0</v>
+        <v>441.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K40"/>
+        <v>0.0045351473922902496</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>0.115</v>
+      </c>
       <c r="L40" s="9" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
+      <c r="O40" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40"/>
+      <c r="R40" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3106,10 +3128,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3128,28 +3150,28 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-G0-L</t>
+          <t>LYQ-BS-CS04-GR-XL</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B0761RKMPH</t>
+          <t>B0761R7P9F</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>782.0</v>
+        <v>584.0</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>0.0012787723785166241</v>
+        <v>0.005136986301369863</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>0.2</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="L41" s="9" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="M41" s="9" t="n">
         <v>0.0</v>
@@ -3182,10 +3204,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3194,68 +3216,76 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>CS04</t>
+          <t>5119</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-GR-XL</t>
+          <t>YZ-BS-BShyl5119-YH-4XL</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B0761R7P9F</t>
+          <t>B01NCSVUOC</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>471.0</v>
+        <v>4687.0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K42"/>
+        <v>0.004907190100277363</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>0.08652173913043477</v>
+      </c>
       <c r="L42" s="9" t="n">
-        <v>0.0</v>
+        <v>1.9899999999999998</v>
       </c>
       <c r="M42" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
+        <v>41.98</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0.04740352548832778</v>
+      </c>
+      <c r="O42" s="5" t="n">
+        <v>21.095477386934675</v>
+      </c>
       <c r="P42" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R42"/>
+        <v>2.0</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>0.08695652173913043</v>
+      </c>
       <c r="S42" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U42" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" s="9" t="n">
-        <v>0.0</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3274,66 +3304,58 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119-YH-4XL</t>
+          <t>YZ-BS-BShyl5119-YT-5XL</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B01NCSVUOC</t>
+          <t>B01HFYMWA4</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>6956.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>0.00359401955146636</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>0.0876</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K43"/>
       <c r="L43" s="9" t="n">
-        <v>2.19</v>
+        <v>0.0</v>
       </c>
       <c r="M43" s="9" t="n">
-        <v>93.96</v>
-      </c>
-      <c r="N43" s="6" t="n">
-        <v>0.02330779054916986</v>
-      </c>
-      <c r="O43" s="5" t="n">
-        <v>42.90410958904109</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R43" s="6" t="n">
-        <v>0.16</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R43"/>
       <c r="S43" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T43" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U43" s="9" t="n">
-        <v>24.99</v>
+        <v>0.0</v>
       </c>
       <c r="V43" s="9" t="n">
-        <v>68.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3352,28 +3374,28 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119-YT-5XL</t>
+          <t>YZ-BS-BShyl5119K03XL</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B01HFYMWA4</t>
+          <t>B01EJ5VUNW</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>712.0</v>
+        <v>6873.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.005617977528089888</v>
+        <v>0.001745962461807071</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>0.0725</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="L44" s="9" t="n">
-        <v>0.29</v>
+        <v>1.04</v>
       </c>
       <c r="M44" s="9" t="n">
         <v>0.0</v>
@@ -3406,10 +3428,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43279.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3423,69 +3445,71 @@
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119K03XL</t>
+          <t>BS-WH1731-R0-XXL</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B01EJ5VUNW</t>
+          <t>B06XZ13X21</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>866.0</v>
+        <v>999.0</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.004618937644341801</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>0.0925</v>
+        <v>0.09500000000000001</v>
       </c>
       <c r="L45" s="9" t="n">
-        <v>0.37</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="M45" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45"/>
+        <v>38.98</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0.014622883530015396</v>
+      </c>
       <c r="O45" s="5" t="n">
-        <v>0.0</v>
+        <v>68.38596491228068</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R45" s="6" t="n">
-        <v>0.0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U45" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V45" s="9" t="n">
-        <v>0.0</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3499,71 +3523,69 @@
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>BS-WH1731-R0-XXL</t>
+          <t>YZ-BS-PW2049-K0-S</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B06XZ13X21</t>
+          <t>B06X95DMXZ</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2852.0</v>
+        <v>970.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.009817671809256662</v>
+        <v>0.006185567010309279</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>0.08535714285714287</v>
+        <v>0.06</v>
       </c>
       <c r="L46" s="9" t="n">
-        <v>2.39</v>
+        <v>0.36</v>
       </c>
       <c r="M46" s="9" t="n">
-        <v>57.97</v>
-      </c>
-      <c r="N46" s="6" t="n">
-        <v>0.041228221493876144</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N46"/>
       <c r="O46" s="5" t="n">
-        <v>24.25523012552301</v>
+        <v>0.0</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R46" s="6" t="n">
-        <v>0.10714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T46" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U46" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V46" s="9" t="n">
-        <v>57.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3572,38 +3594,38 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>XZ-Manual</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>MF360</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-PW2049-K0-S</t>
+          <t>XZ-BS-HMMF360-BE-L</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B06X95DMXZ</t>
+          <t>B01N3L1AIZ</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>2340.0</v>
+        <v>888.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.005555555555555556</v>
+        <v>0.005630630630630631</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>0.06307692307692307</v>
+        <v>0.202</v>
       </c>
       <c r="L47" s="9" t="n">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
       <c r="M47" s="9" t="n">
         <v>0.0</v>
@@ -3636,10 +3658,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3648,38 +3670,38 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>BSLL</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BSLLK03XL</t>
+          <t>WQS-BN-1503-GR-XL</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B06XG5RDSQ</t>
+          <t>B0788KZ4NT</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>473.0</v>
+        <v>65.0</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.004228329809725159</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0.0</v>
@@ -3712,10 +3734,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3724,38 +3746,38 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>XZ-Manual</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>MF360</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-HMMF360-BE-L</t>
+          <t>WQS-BN-1503-BO-M</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B01N3L1AIZ</t>
+          <t>B0788LLYXL</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>997.0</v>
+        <v>16.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.003009027081243731</v>
+        <v>0.0625</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>0.2966666666666667</v>
+        <v>0.23</v>
       </c>
       <c r="L49" s="9" t="n">
-        <v>0.89</v>
+        <v>0.23</v>
       </c>
       <c r="M49" s="9" t="n">
         <v>0.0</v>
@@ -3788,10 +3810,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3800,38 +3822,38 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>WY 017</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-GR-XL</t>
+          <t>WY-SB017-DG-S</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B0788KZ4NT</t>
+          <t>B078NNHC7V</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>34.0</v>
+        <v>999.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.001001001001001001</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="L50" s="9" t="n">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="M50" s="9" t="n">
         <v>0.0</v>
@@ -3864,10 +3886,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3876,49 +3898,55 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>WY 017</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-M</t>
+          <t>WY-SB017-LG-XL</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B0788LLYXL</t>
+          <t>B078NLT7K4</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>32.0</v>
+        <v>579.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K51"/>
+        <v>0.0034542314335060447</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>0.24</v>
+      </c>
       <c r="L51" s="9" t="n">
-        <v>0.0</v>
+        <v>0.48</v>
       </c>
       <c r="M51" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N51"/>
-      <c r="O51"/>
+      <c r="O51" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51"/>
+      <c r="R51" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S51" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3934,10 +3962,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3956,28 +3984,28 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-DG-S</t>
+          <t>WY-SB017-NY-XXL</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B078NNHC7V</t>
+          <t>B078NC5YWP</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1981.0</v>
+        <v>739.0</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>5.047955577990914E-4</v>
+        <v>0.0013531799729364004</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="L52" s="9" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="M52" s="9" t="n">
         <v>0.0</v>
@@ -4010,10 +4038,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4027,44 +4055,50 @@
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>WY 017</t>
+          <t>026</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-LG-XL</t>
+          <t>MY-SB026-DG-S</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B078NLT7K4</t>
+          <t>B078LTW124</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>463.0</v>
+        <v>628.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K53"/>
+        <v>0.009554140127388535</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>0.22166666666666668</v>
+      </c>
       <c r="L53" s="9" t="n">
-        <v>0.0</v>
+        <v>1.33</v>
       </c>
       <c r="M53" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N53"/>
-      <c r="O53"/>
+      <c r="O53" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P53" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53"/>
+      <c r="R53" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S53" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4080,10 +4114,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4097,33 +4131,33 @@
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>WY 017</t>
+          <t>026</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-NY-XXL</t>
+          <t>MY-SB026-RD-S</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B078NC5YWP</t>
+          <t>B078M6S3S5</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>859.0</v>
+        <v>574.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.0011641443538998836</v>
+        <v>0.006968641114982579</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>0.22</v>
+        <v>0.1925</v>
       </c>
       <c r="L54" s="9" t="n">
-        <v>0.22</v>
+        <v>0.77</v>
       </c>
       <c r="M54" s="9" t="n">
         <v>0.0</v>
@@ -4156,10 +4190,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4168,38 +4202,38 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-DG-S</t>
+          <t>YZ-BS-5505Da0L</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B078LTW124</t>
+          <t>B013OSTKN2</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>466.0</v>
+        <v>1231.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.006437768240343348</v>
+        <v>0.006498781478472786</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>0.18000000000000002</v>
+        <v>0.04125</v>
       </c>
       <c r="L55" s="9" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="M55" s="9" t="n">
         <v>0.0</v>
@@ -4232,10 +4266,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4244,38 +4278,38 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-RD-S</t>
+          <t>YZ-BS-5505K0-M</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B078M6S3S5</t>
+          <t>B071LFK69M</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1091.0</v>
+        <v>356.0</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>9.165902841429881E-4</v>
+        <v>0.005617977528089888</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0.0</v>
@@ -4308,10 +4342,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43278.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4320,55 +4354,49 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>YZ-1703</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-5505Da0L</t>
+          <t>YZ-BS-BKN1703-R0-M</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B013OSTKN2</t>
+          <t>B06XCXKQP6</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>889.0</v>
+        <v>37.0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.010123734533183352</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>0.04777777777777778</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K57"/>
       <c r="L57" s="9" t="n">
-        <v>0.43</v>
+        <v>0.0</v>
       </c>
       <c r="M57" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N57"/>
-      <c r="O57" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O57"/>
       <c r="P57" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R57" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R57"/>
       <c r="S57" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4384,10 +4412,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4396,76 +4424,68 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>YZ-1703</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-5505K0-M</t>
+          <t>YZ-BS-BKN1703-R0-S</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B071LFK69M</t>
+          <t>B06XCMWGD1</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>416.0</v>
+        <v>19.0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>0.004807692307692308</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>0.03</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K58"/>
       <c r="L58" s="9" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="M58" s="9" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="N58" s="6" t="n">
-        <v>0.0024009603841536617</v>
-      </c>
-      <c r="O58" s="5" t="n">
-        <v>416.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="P58" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R58" s="6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R58"/>
       <c r="S58" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T58" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U58" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V58" s="9" t="n">
-        <v>24.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4484,16 +4504,16 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-L</t>
+          <t>YZ-BS-BKN1703-R0-XL</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B06XCR3R6C</t>
+          <t>B06XD91JGL</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>66.0</v>
+        <v>43.0</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>0.0</v>
@@ -4532,10 +4552,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4554,39 +4574,45 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-M</t>
+          <t>YZ-BS-BKN1703-R0-XS</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B06XCXKQP6</t>
+          <t>B06XCR5MFR</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>59.0</v>
+        <v>697.0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60"/>
+        <v>0.00430416068866571</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>0.09333333333333334</v>
+      </c>
       <c r="L60" s="9" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="M60" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
+      <c r="O60" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P60" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R60"/>
+      <c r="R60" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S60" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4602,10 +4628,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4614,38 +4640,38 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-S</t>
+          <t>XZ-BS-PW-2001-C0-36</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B06XCMWGD1</t>
+          <t>B01N1S6RLP</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>357.0</v>
+        <v>11114.0</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>6.0</v>
+        <v>35.0</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>0.01680672268907563</v>
+        <v>0.00314918121288465</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>0.07666666666666666</v>
+        <v>0.09742857142857143</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>0.45999999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="M61" s="9" t="n">
         <v>0.0</v>
@@ -4678,10 +4704,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4690,38 +4716,38 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-XL</t>
+          <t>XZ-BS-PW-2001-G0-36</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B06XD91JGL</t>
+          <t>B01MYZMV1J</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>18.0</v>
+        <v>1095.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>0.02</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="L62" s="9" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="M62" s="9" t="n">
         <v>0.0</v>
@@ -4754,10 +4780,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4766,38 +4792,38 @@
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-XS</t>
+          <t>XZ-BS-PW-2001-N0-36</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B06XCR5MFR</t>
+          <t>B01N1S6RRW</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>552.0</v>
+        <v>6594.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.0018115942028985507</v>
+        <v>9.099181073703368E-4</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>0.06</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="L63" s="9" t="n">
-        <v>0.06</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M63" s="9" t="n">
         <v>0.0</v>
@@ -4830,10 +4856,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4852,28 +4878,28 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-C0-36</t>
+          <t>XZ-BS-PW-2001-R0-36</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B01N1S6RLP</t>
+          <t>B01NBKHGA6</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>2960.0</v>
+        <v>7437.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.003378378378378378</v>
+        <v>0.0026892564205997036</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>0.10900000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="L64" s="9" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="M64" s="9" t="n">
         <v>0.0</v>
@@ -4906,10 +4932,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4918,38 +4944,38 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-C0-37</t>
+          <t>BS-BN-1501-BO-3XL</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B01MYZMRWZ</t>
+          <t>B06ZY9HV1B</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>1213.0</v>
+        <v>2208.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.0032976092333058533</v>
+        <v>0.004076086956521739</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>0.0925</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="L65" s="9" t="n">
-        <v>0.37</v>
+        <v>1.1</v>
       </c>
       <c r="M65" s="9" t="n">
         <v>0.0</v>
@@ -4982,10 +5008,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -4994,38 +5020,38 @@
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-G0-36</t>
+          <t>BS-BN-1501-BO-L</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B01MYZMV1J</t>
+          <t>B071115242</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>624.0</v>
+        <v>1455.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>0.009615384615384616</v>
+        <v>6.872852233676976E-4</v>
       </c>
       <c r="K66" s="9" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="L66" s="9" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="M66" s="9" t="n">
         <v>0.0</v>
@@ -5058,10 +5084,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5070,38 +5096,38 @@
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-N0-36</t>
+          <t>BS-BN-1501-BO-XL</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B01N1S6RRW</t>
+          <t>B071RGN23Z</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>6276.0</v>
+        <v>340.0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>0.0011153601019757808</v>
+        <v>0.0029411764705882353</v>
       </c>
       <c r="K67" s="9" t="n">
-        <v>0.13999999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="L67" s="9" t="n">
-        <v>0.98</v>
+        <v>0.11</v>
       </c>
       <c r="M67" s="9" t="n">
         <v>0.0</v>
@@ -5134,10 +5160,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5146,63 +5172,65 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-R0-36</t>
+          <t>BS-BN-1501-GR-2XL</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B01NBKHGA6</t>
+          <t>B071N9PNNJ</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>2586.0</v>
+        <v>10146.0</v>
       </c>
       <c r="I68" s="4" t="n">
         <v>14.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.005413766434648105</v>
+        <v>0.0013798541297062883</v>
       </c>
       <c r="K68" s="9" t="n">
-        <v>0.12142857142857144</v>
+        <v>0.12357142857142857</v>
       </c>
       <c r="L68" s="9" t="n">
-        <v>1.7000000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="M68" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N68"/>
+        <v>14.89</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>0.11618535930154465</v>
+      </c>
       <c r="O68" s="5" t="n">
-        <v>0.0</v>
+        <v>8.606936416184972</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R68" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S68" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T68" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U68" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
       <c r="V68" s="9" t="n">
         <v>0.0</v>
@@ -5210,10 +5238,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5232,28 +5260,28 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-3XL</t>
+          <t>BS-BN-1501-GR-3XL</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HV1B</t>
+          <t>B071Y6DGRB</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>3910.0</v>
+        <v>2597.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.003069053708439898</v>
+        <v>0.0015402387370042356</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>0.13083333333333333</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="L69" s="9" t="n">
-        <v>1.5699999999999998</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="M69" s="9" t="n">
         <v>0.0</v>
@@ -5286,10 +5314,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5308,39 +5336,45 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-L</t>
+          <t>BS-BN-1501-GR-4XL</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B071115242</t>
+          <t>B071N9PLPJ</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>760.0</v>
+        <v>660.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K70"/>
+        <v>0.0030303030303030303</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>0.07500000000000001</v>
+      </c>
       <c r="L70" s="9" t="n">
-        <v>0.0</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M70" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N70"/>
-      <c r="O70"/>
+      <c r="O70" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q70" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R70"/>
+      <c r="R70" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S70" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5356,10 +5390,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5378,28 +5412,28 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-XL</t>
+          <t>BS-BN-1501-GR-L</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B071RGN23Z</t>
+          <t>B071119HN4</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>1548.0</v>
+        <v>3114.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>6.459948320413438E-4</v>
+        <v>0.002890173410404624</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>0.13</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L71" s="9" t="n">
-        <v>0.13</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="M71" s="9" t="n">
         <v>0.0</v>
@@ -5432,10 +5466,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5454,66 +5488,64 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-2XL</t>
+          <t>BS-BN-1501-KO-2XL</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B071N9PNNJ</t>
+          <t>B0711153ZT</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>19837.0</v>
+        <v>28.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.0015123254524373646</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K72" s="9" t="n">
-        <v>0.13266666666666665</v>
+        <v>0.11</v>
       </c>
       <c r="L72" s="9" t="n">
-        <v>3.98</v>
+        <v>0.11</v>
       </c>
       <c r="M72" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N72" s="6" t="n">
-        <v>0.26729348556077903</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" s="5" t="n">
-        <v>3.741206030150754</v>
+        <v>0.0</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R72" s="6" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T72" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U72" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V72" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5532,28 +5564,28 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-3XL</t>
+          <t>BS-BN-1501-KO-3XL</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B071Y6DGRB</t>
+          <t>B071N9PTC4</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>1132.0</v>
+        <v>598.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>0.0017667844522968198</v>
+        <v>0.006688963210702341</v>
       </c>
       <c r="K73" s="9" t="n">
-        <v>0.085</v>
+        <v>0.13</v>
       </c>
       <c r="L73" s="9" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="M73" s="9" t="n">
         <v>0.0</v>
@@ -5586,10 +5618,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5608,28 +5640,28 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-4XL</t>
+          <t>BS-BN-1501-KO-4XL</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B071N9PLPJ</t>
+          <t>B0711158DY</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>567.0</v>
+        <v>2408.0</v>
       </c>
       <c r="I74" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>0.003527336860670194</v>
+        <v>8.305647840531562E-4</v>
       </c>
       <c r="K74" s="9" t="n">
-        <v>0.115</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L74" s="9" t="n">
-        <v>0.23</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M74" s="9" t="n">
         <v>0.0</v>
@@ -5662,10 +5694,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5684,45 +5716,39 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-L</t>
+          <t>BS-BN-1501-KO-L</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B071119HN4</t>
+          <t>B06ZY9HRMD</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>957.0</v>
+        <v>695.0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>0.003134796238244514</v>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>0.14333333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K75"/>
       <c r="L75" s="9" t="n">
-        <v>0.43</v>
+        <v>0.0</v>
       </c>
       <c r="M75" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N75"/>
-      <c r="O75" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O75"/>
       <c r="P75" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q75" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R75" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R75"/>
       <c r="S75" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5738,10 +5764,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5760,39 +5786,45 @@
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-XL</t>
+          <t>BS-BN-1501-KO-XL</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B071RGFBT6</t>
+          <t>B071XX591N</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>22.0</v>
+        <v>4836.0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K76"/>
+        <v>0.0014474772539288668</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>0.12000000000000001</v>
+      </c>
       <c r="L76" s="9" t="n">
-        <v>0.0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="M76" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
+      <c r="O76" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P76" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R76"/>
+      <c r="R76" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S76" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5808,10 +5840,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5830,66 +5862,58 @@
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-2XL</t>
+          <t>BS-BN-1501-RO-2XL</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B0711153ZT</t>
+          <t>B071DJKWRB</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>4484.0</v>
+        <v>97.0</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>0.0015611061552185548</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>0.10285714285714286</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K77"/>
       <c r="L77" s="9" t="n">
-        <v>0.72</v>
+        <v>0.0</v>
       </c>
       <c r="M77" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N77" s="6" t="n">
-        <v>0.048354600402955</v>
-      </c>
-      <c r="O77" s="5" t="n">
-        <v>20.680555555555557</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R77" s="6" t="n">
-        <v>0.14285714285714285</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R77"/>
       <c r="S77" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T77" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U77" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V77" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
@@ -5908,39 +5932,45 @@
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-3XL</t>
+          <t>BS-BN-1501-RO-3XL</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>B071N9PTC4</t>
+          <t>B06ZY9HTD9</t>
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>41.0</v>
+        <v>1360.0</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K78"/>
+        <v>0.0029411764705882353</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>0.1275</v>
+      </c>
       <c r="L78" s="9" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="M78" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N78"/>
-      <c r="O78"/>
+      <c r="O78" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P78" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R78"/>
+      <c r="R78" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S78" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5956,10 +5986,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
@@ -5978,45 +6008,39 @@
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-4XL</t>
+          <t>BS-BN-1501-RO-4XL</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>B0711158DY</t>
+          <t>B071XXJL4R</t>
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>243.0</v>
+        <v>269.0</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>0.012345679012345678</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.10666666666666667</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" s="9" t="n">
-        <v>0.32</v>
+        <v>0.0</v>
       </c>
       <c r="M79" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N79"/>
-      <c r="O79" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O79"/>
       <c r="P79" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R79" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R79"/>
       <c r="S79" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6032,10 +6056,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
@@ -6054,39 +6078,45 @@
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-L</t>
+          <t>BS-BN-1501-RO-L</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HRMD</t>
+          <t>B071V2B5SZ</t>
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>498.0</v>
+        <v>1779.0</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K80"/>
+        <v>0.0022484541877459247</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>0.07750000000000001</v>
+      </c>
       <c r="L80" s="9" t="n">
-        <v>0.0</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="M80" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N80"/>
-      <c r="O80"/>
+      <c r="O80" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P80" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R80"/>
+      <c r="R80" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S80" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6102,10 +6132,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
@@ -6124,28 +6154,28 @@
       </c>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-XL</t>
+          <t>BS-BN-1501-RO-XL</t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>B071XX591N</t>
+          <t>B071DJKQ1B</t>
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>1710.0</v>
+        <v>934.0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>0.0011695906432748538</v>
+        <v>0.0010706638115631692</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="L81" s="9" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M81" s="9" t="n">
         <v>0.0</v>
@@ -6178,10 +6208,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
@@ -6200,16 +6230,16 @@
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-2XL</t>
+          <t>BS-BN-1501-WO-3XL</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>B071DJKWRB</t>
+          <t>B0711149ZH</t>
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>1177.0</v>
+        <v>1117.0</v>
       </c>
       <c r="I82" s="4" t="n">
         <v>0.0</v>
@@ -6248,10 +6278,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
@@ -6270,45 +6300,39 @@
       </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-3XL</t>
+          <t>BS-BN-1501-WO-4XL</t>
         </is>
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HTD9</t>
+          <t>B071Y6HHFS</t>
         </is>
       </c>
       <c r="H83" s="4" t="n">
-        <v>1002.0</v>
+        <v>1198.0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>9.98003992015968E-4</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>0.11</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K83"/>
       <c r="L83" s="9" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
       <c r="M83" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N83"/>
-      <c r="O83" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O83"/>
       <c r="P83" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R83" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R83"/>
       <c r="S83" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6324,10 +6348,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
@@ -6346,66 +6370,64 @@
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-4XL</t>
+          <t>BS-BN-1501-WO-L</t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>B071XXJL4R</t>
+          <t>B0711154HM</t>
         </is>
       </c>
       <c r="H84" s="4" t="n">
-        <v>1917.0</v>
+        <v>884.0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>0.0020865936358894104</v>
+        <v>0.0011312217194570137</v>
       </c>
       <c r="K84" s="9" t="n">
-        <v>0.135</v>
+        <v>0.02</v>
       </c>
       <c r="L84" s="9" t="n">
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
       <c r="M84" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N84" s="6" t="n">
-        <v>0.03626595030221625</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
       <c r="O84" s="5" t="n">
-        <v>27.574074074074073</v>
+        <v>0.0</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R84" s="6" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T84" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U84" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V84" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
@@ -6424,28 +6446,28 @@
       </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-L</t>
+          <t>BS-BN-1501-WO-XL</t>
         </is>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t>B071V2B5SZ</t>
+          <t>B071RGNDPC</t>
         </is>
       </c>
       <c r="H85" s="4" t="n">
-        <v>1164.0</v>
+        <v>906.0</v>
       </c>
       <c r="I85" s="4" t="n">
         <v>3.0</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>0.0025773195876288655</v>
+        <v>0.003311258278145696</v>
       </c>
       <c r="K85" s="9" t="n">
-        <v>0.07666666666666667</v>
+        <v>0.09666666666666668</v>
       </c>
       <c r="L85" s="9" t="n">
-        <v>0.23</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="M85" s="9" t="n">
         <v>0.0</v>
@@ -6478,10 +6500,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
@@ -6490,55 +6512,49 @@
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-XL</t>
+          <t>CS-LY171-G912-L</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>B071DJKQ1B</t>
+          <t>B073PQDCYM</t>
         </is>
       </c>
       <c r="H86" s="4" t="n">
-        <v>635.0</v>
+        <v>31.0</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>0.0031496062992125984</v>
-      </c>
-      <c r="K86" s="9" t="n">
-        <v>0.14</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K86"/>
       <c r="L86" s="9" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="M86" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N86"/>
-      <c r="O86" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O86"/>
       <c r="P86" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q86" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R86" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R86"/>
       <c r="S86" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6554,10 +6570,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
@@ -6566,26 +6582,26 @@
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-2XL</t>
+          <t>CS-LY171-G912-M</t>
         </is>
       </c>
       <c r="G87" s="1" t="inlineStr">
         <is>
-          <t>B071RGFBLT</t>
+          <t>B073PPMXD1</t>
         </is>
       </c>
       <c r="H87" s="4" t="n">
-        <v>147.0</v>
+        <v>29.0</v>
       </c>
       <c r="I87" s="4" t="n">
         <v>0.0</v>
@@ -6624,10 +6640,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
@@ -6636,55 +6652,49 @@
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-3XL</t>
+          <t>CS-LY171-G912-S</t>
         </is>
       </c>
       <c r="G88" s="1" t="inlineStr">
         <is>
-          <t>B0711149ZH</t>
+          <t>B073PP2Q5W</t>
         </is>
       </c>
       <c r="H88" s="4" t="n">
-        <v>343.0</v>
+        <v>23.0</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J88" s="6" t="n">
-        <v>0.0029154518950437317</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>0.15</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K88"/>
       <c r="L88" s="9" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="M88" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N88"/>
-      <c r="O88" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O88"/>
       <c r="P88" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R88" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R88"/>
       <c r="S88" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6700,10 +6710,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
@@ -6712,49 +6722,55 @@
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-4XL</t>
+          <t>CS-LY171-LB916-L</t>
         </is>
       </c>
       <c r="G89" s="1" t="inlineStr">
         <is>
-          <t>B071Y6HHFS</t>
+          <t>B073PQ7JKT</t>
         </is>
       </c>
       <c r="H89" s="4" t="n">
-        <v>293.0</v>
+        <v>381.0</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K89"/>
+        <v>0.0026246719160104987</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>0.17</v>
+      </c>
       <c r="L89" s="9" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="M89" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N89"/>
-      <c r="O89"/>
+      <c r="O89" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P89" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R89"/>
+      <c r="R89" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S89" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6770,10 +6786,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
@@ -6782,55 +6798,49 @@
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F90" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-L</t>
+          <t>CS-LY171-LB916-M</t>
         </is>
       </c>
       <c r="G90" s="1" t="inlineStr">
         <is>
-          <t>B0711154HM</t>
+          <t>B073PPWDT7</t>
         </is>
       </c>
       <c r="H90" s="4" t="n">
-        <v>519.0</v>
+        <v>25.0</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>0.0038535645472061657</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>0.14</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K90"/>
       <c r="L90" s="9" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="M90" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N90"/>
-      <c r="O90" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O90"/>
       <c r="P90" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R90" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R90"/>
       <c r="S90" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6846,10 +6856,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
@@ -6858,26 +6868,26 @@
       </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F91" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-XL</t>
+          <t>CS-LY171-LB916-XXL</t>
         </is>
       </c>
       <c r="G91" s="1" t="inlineStr">
         <is>
-          <t>B071RGNDPC</t>
+          <t>B073PPFLNM</t>
         </is>
       </c>
       <c r="H91" s="4" t="n">
-        <v>2426.0</v>
+        <v>19.0</v>
       </c>
       <c r="I91" s="4" t="n">
         <v>0.0</v>
@@ -6916,10 +6926,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
@@ -6938,16 +6948,16 @@
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-G912-L</t>
+          <t>CS-LY171-LG907-S</t>
         </is>
       </c>
       <c r="G92" s="1" t="inlineStr">
         <is>
-          <t>B073PQDCYM</t>
+          <t>B073PPT3Z6</t>
         </is>
       </c>
       <c r="H92" s="4" t="n">
-        <v>8.0</v>
+        <v>214.0</v>
       </c>
       <c r="I92" s="4" t="n">
         <v>0.0</v>
@@ -6986,10 +6996,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43281.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
@@ -7008,16 +7018,16 @@
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-G912-M</t>
+          <t>CS-LY171-PI908-L</t>
         </is>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t>B073PPMXD1</t>
+          <t>B073PPNNFC</t>
         </is>
       </c>
       <c r="H93" s="4" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I93" s="4" t="n">
         <v>0.0</v>
@@ -7056,10 +7066,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
@@ -7078,16 +7088,16 @@
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-G912-S</t>
+          <t>CS-LY171-PI908-M</t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>B073PP2Q5W</t>
+          <t>B073PPNMZS</t>
         </is>
       </c>
       <c r="H94" s="4" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="I94" s="4" t="n">
         <v>0.0</v>
@@ -7126,10 +7136,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
@@ -7148,28 +7158,28 @@
       </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LB916-L</t>
+          <t>CS-LY171-PI908-S</t>
         </is>
       </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t>B073PQ7JKT</t>
+          <t>B073PQ7M22</t>
         </is>
       </c>
       <c r="H95" s="4" t="n">
-        <v>346.0</v>
+        <v>42.0</v>
       </c>
       <c r="I95" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J95" s="6" t="n">
-        <v>0.002890173410404624</v>
+        <v>0.023809523809523808</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="L95" s="9" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="M95" s="9" t="n">
         <v>0.0</v>
@@ -7202,10 +7212,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
@@ -7224,16 +7234,16 @@
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LB916-M</t>
+          <t>CS-LY171-Sa911-M</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>B073PPWDT7</t>
+          <t>B073PQD5PP</t>
         </is>
       </c>
       <c r="H96" s="4" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="I96" s="4" t="n">
         <v>0.0</v>
@@ -7272,10 +7282,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
@@ -7294,16 +7304,16 @@
       </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LB916-XXL</t>
+          <t>CS-LY171-W902-L</t>
         </is>
       </c>
       <c r="G97" s="1" t="inlineStr">
         <is>
-          <t>B073PPFLNM</t>
+          <t>B073PQLSS5</t>
         </is>
       </c>
       <c r="H97" s="4" t="n">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="I97" s="4" t="n">
         <v>0.0</v>
@@ -7342,10 +7352,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
@@ -7364,16 +7374,16 @@
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LG907-S</t>
+          <t>CS-LY171-WR917-L</t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
         <is>
-          <t>B073PPT3Z6</t>
+          <t>B073PPRQLJ</t>
         </is>
       </c>
       <c r="H98" s="4" t="n">
-        <v>126.0</v>
+        <v>25.0</v>
       </c>
       <c r="I98" s="4" t="n">
         <v>0.0</v>
@@ -7412,10 +7422,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
@@ -7434,16 +7444,16 @@
       </c>
       <c r="F99" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LG907-XL</t>
+          <t>CS-LY171-WR917-M</t>
         </is>
       </c>
       <c r="G99" s="1" t="inlineStr">
         <is>
-          <t>B073PQ8R84</t>
+          <t>B073PPM5K5</t>
         </is>
       </c>
       <c r="H99" s="4" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="I99" s="4" t="n">
         <v>0.0</v>
@@ -7482,10 +7492,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
@@ -7504,16 +7514,16 @@
       </c>
       <c r="F100" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-PI908-L</t>
+          <t>CS-LY171-WR917-S</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t>B073PPNNFC</t>
+          <t>B073PQ2K9M</t>
         </is>
       </c>
       <c r="H100" s="4" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="I100" s="4" t="n">
         <v>0.0</v>
@@ -7552,10 +7562,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43279.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
@@ -7574,16 +7584,16 @@
       </c>
       <c r="F101" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-PI908-M</t>
+          <t>CS-LY171-WR917-XL</t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t>B073PPNMZS</t>
+          <t>B073PQ3DVN</t>
         </is>
       </c>
       <c r="H101" s="4" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="I101" s="4" t="n">
         <v>0.0</v>
@@ -7622,10 +7632,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
@@ -7644,16 +7654,16 @@
       </c>
       <c r="F102" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-PI908-S</t>
+          <t>CS-LY171-WR917-XXL</t>
         </is>
       </c>
       <c r="G102" s="1" t="inlineStr">
         <is>
-          <t>B073PQ7M22</t>
+          <t>B073PQ61JH</t>
         </is>
       </c>
       <c r="H102" s="4" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="I102" s="4" t="n">
         <v>0.0</v>
@@ -7692,10 +7702,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
@@ -7714,16 +7724,16 @@
       </c>
       <c r="F103" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-Sa911-M</t>
+          <t>CS-LY171-ZL918-L</t>
         </is>
       </c>
       <c r="G103" s="1" t="inlineStr">
         <is>
-          <t>B073PQD5PP</t>
+          <t>B073PPB8RP</t>
         </is>
       </c>
       <c r="H103" s="4" t="n">
-        <v>1.0</v>
+        <v>62.0</v>
       </c>
       <c r="I103" s="4" t="n">
         <v>0.0</v>
@@ -7762,10 +7772,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
@@ -7784,16 +7794,16 @@
       </c>
       <c r="F104" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-W902-L</t>
+          <t>CS-LY171-ZL918-M</t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t>B073PQLSS5</t>
+          <t>B073PPHGGQ</t>
         </is>
       </c>
       <c r="H104" s="4" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="I104" s="4" t="n">
         <v>0.0</v>
@@ -7832,10 +7842,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
@@ -7854,16 +7864,16 @@
       </c>
       <c r="F105" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-WR917-L</t>
+          <t>CS-LY171-ZL918-XL</t>
         </is>
       </c>
       <c r="G105" s="1" t="inlineStr">
         <is>
-          <t>B073PPRQLJ</t>
+          <t>B073PQCX9Z</t>
         </is>
       </c>
       <c r="H105" s="4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="I105" s="4" t="n">
         <v>0.0</v>
@@ -7902,10 +7912,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
@@ -7914,68 +7924,76 @@
       </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F106" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-WR917-M</t>
+          <t>BS-BN-1501-BO-3XL</t>
         </is>
       </c>
       <c r="G106" s="1" t="inlineStr">
         <is>
-          <t>B073PPM5K5</t>
+          <t>B06ZY9HV1B</t>
         </is>
       </c>
       <c r="H106" s="4" t="n">
-        <v>31.0</v>
+        <v>10075.0</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K106"/>
+        <v>0.0025806451612903226</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>0.1703846153846154</v>
+      </c>
       <c r="L106" s="9" t="n">
-        <v>0.0</v>
+        <v>4.430000000000001</v>
       </c>
       <c r="M106" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N106"/>
-      <c r="O106"/>
+        <v>29.78</v>
+      </c>
+      <c r="N106" s="6" t="n">
+        <v>0.14875755540631297</v>
+      </c>
+      <c r="O106" s="5" t="n">
+        <v>6.722347629796839</v>
+      </c>
       <c r="P106" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R106"/>
+        <v>2.0</v>
+      </c>
+      <c r="R106" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
       <c r="S106" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T106" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U106" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
       <c r="V106" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
@@ -7984,68 +8002,76 @@
       </c>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F107" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-WR917-S</t>
+          <t>BS-BN-1501-GR-3XL</t>
         </is>
       </c>
       <c r="G107" s="1" t="inlineStr">
         <is>
-          <t>B073PQ2K9M</t>
+          <t>B071Y6DGRB</t>
         </is>
       </c>
       <c r="H107" s="4" t="n">
-        <v>6.0</v>
+        <v>11156.0</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K107"/>
+        <v>0.0014342058085335247</v>
+      </c>
+      <c r="K107" s="9" t="n">
+        <v>0.140625</v>
+      </c>
       <c r="L107" s="9" t="n">
-        <v>0.0</v>
+        <v>2.25</v>
       </c>
       <c r="M107" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>14.89</v>
+      </c>
+      <c r="N107" s="6" t="n">
+        <v>0.1511081262592344</v>
+      </c>
+      <c r="O107" s="5" t="n">
+        <v>6.617777777777778</v>
+      </c>
       <c r="P107" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R107"/>
+        <v>1.0</v>
+      </c>
+      <c r="R107" s="6" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="S107" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T107" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U107" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V107" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
@@ -8054,68 +8080,76 @@
       </c>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F108" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-WR917-XL</t>
+          <t>BS-BN-1501-GR-L</t>
         </is>
       </c>
       <c r="G108" s="1" t="inlineStr">
         <is>
-          <t>B073PQ3DVN</t>
+          <t>B071119HN4</t>
         </is>
       </c>
       <c r="H108" s="4" t="n">
-        <v>36.0</v>
+        <v>26646.0</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J108" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K108"/>
+        <v>8.256398708999475E-4</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>0.18772727272727271</v>
+      </c>
       <c r="L108" s="9" t="n">
-        <v>0.0</v>
+        <v>4.13</v>
       </c>
       <c r="M108" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>14.89</v>
+      </c>
+      <c r="N108" s="6" t="n">
+        <v>0.277367360644728</v>
+      </c>
+      <c r="O108" s="5" t="n">
+        <v>3.6053268765133173</v>
+      </c>
       <c r="P108" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R108"/>
+        <v>1.0</v>
+      </c>
+      <c r="R108" s="6" t="n">
+        <v>0.045454545454545456</v>
+      </c>
       <c r="S108" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T108" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U108" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V108" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
@@ -8124,26 +8158,26 @@
       </c>
       <c r="D109" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F109" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-WR917-XXL</t>
+          <t>BS-BN-1501-RO-2XL</t>
         </is>
       </c>
       <c r="G109" s="1" t="inlineStr">
         <is>
-          <t>B073PQ61JH</t>
+          <t>B071DJKWRB</t>
         </is>
       </c>
       <c r="H109" s="4" t="n">
-        <v>8.0</v>
+        <v>198.0</v>
       </c>
       <c r="I109" s="4" t="n">
         <v>0.0</v>
@@ -8156,36 +8190,38 @@
         <v>0.0</v>
       </c>
       <c r="M109" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N109"/>
+        <v>14.89</v>
+      </c>
+      <c r="N109" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O109"/>
       <c r="P109" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R109"/>
       <c r="S109" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T109" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U109" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V109" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
@@ -8194,49 +8230,55 @@
       </c>
       <c r="D110" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F110" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-ZL918-L</t>
+          <t>BS-BN-1501-RO-XL</t>
         </is>
       </c>
       <c r="G110" s="1" t="inlineStr">
         <is>
-          <t>B073PPB8RP</t>
+          <t>B071DJKQ1B</t>
         </is>
       </c>
       <c r="H110" s="4" t="n">
-        <v>47.0</v>
+        <v>2808.0</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J110" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K110"/>
+        <v>7.122507122507123E-4</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>0.165</v>
+      </c>
       <c r="L110" s="9" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="M110" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N110"/>
-      <c r="O110"/>
+      <c r="O110" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P110" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R110"/>
+      <c r="R110" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S110" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -8252,10 +8294,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
@@ -8264,49 +8306,55 @@
       </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F111" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-ZL918-M</t>
+          <t>BS-BN-1501-WO-3XL</t>
         </is>
       </c>
       <c r="G111" s="1" t="inlineStr">
         <is>
-          <t>B073PPHGGQ</t>
+          <t>B0711149ZH</t>
         </is>
       </c>
       <c r="H111" s="4" t="n">
-        <v>59.0</v>
+        <v>8382.0</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="J111" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K111"/>
+        <v>0.00190885230255309</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>0.158125</v>
+      </c>
       <c r="L111" s="9" t="n">
-        <v>0.0</v>
+        <v>2.53</v>
       </c>
       <c r="M111" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N111"/>
-      <c r="O111"/>
+      <c r="O111" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P111" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R111"/>
+      <c r="R111" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S111" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -8322,10 +8370,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
@@ -8339,44 +8387,50 @@
       </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F112" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-ZL918-XL</t>
+          <t>CS-LY181-G912-L</t>
         </is>
       </c>
       <c r="G112" s="1" t="inlineStr">
         <is>
-          <t>B073PQCX9Z</t>
+          <t>B073PPLXB3</t>
         </is>
       </c>
       <c r="H112" s="4" t="n">
-        <v>7.0</v>
+        <v>551.0</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J112" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K112"/>
+        <v>0.003629764065335753</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>0.2</v>
+      </c>
       <c r="L112" s="9" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M112" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N112"/>
-      <c r="O112"/>
+      <c r="O112" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P112" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R112"/>
+      <c r="R112" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S112" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -8392,10 +8446,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
@@ -8404,76 +8458,74 @@
       </c>
       <c r="D113" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F113" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-3XL</t>
+          <t>CS-LY181-LB916-L</t>
         </is>
       </c>
       <c r="G113" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HV1B</t>
+          <t>B073PQDRHR</t>
         </is>
       </c>
       <c r="H113" s="4" t="n">
-        <v>18823.0</v>
+        <v>427.0</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>0.0024969452265844977</v>
+        <v>0.00234192037470726</v>
       </c>
       <c r="K113" s="9" t="n">
-        <v>0.13553191489361702</v>
+        <v>0.16</v>
       </c>
       <c r="L113" s="9" t="n">
-        <v>6.37</v>
+        <v>0.16</v>
       </c>
       <c r="M113" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N113" s="6" t="n">
-        <v>0.4278038952316991</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N113"/>
       <c r="O113" s="5" t="n">
-        <v>2.337519623233909</v>
+        <v>0.0</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R113" s="6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.0</v>
       </c>
       <c r="S113" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T113" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U113" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V113" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
@@ -8482,47 +8534,47 @@
       </c>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F114" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-3XL</t>
+          <t>CS-LY181-LB916-M</t>
         </is>
       </c>
       <c r="G114" s="1" t="inlineStr">
         <is>
-          <t>B071Y6DGRB</t>
+          <t>B073PQ7Z9P</t>
         </is>
       </c>
       <c r="H114" s="4" t="n">
-        <v>4251.0</v>
+        <v>137.0</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J114" s="6" t="n">
-        <v>0.0018819101387908726</v>
+        <v>0.021897810218978103</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>0.1225</v>
+        <v>0.15333333333333335</v>
       </c>
       <c r="L114" s="9" t="n">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="M114" s="9" t="n">
-        <v>14.89</v>
+        <v>18.99</v>
       </c>
       <c r="N114" s="6" t="n">
-        <v>0.06581598388179986</v>
+        <v>0.024223275408109535</v>
       </c>
       <c r="O114" s="5" t="n">
-        <v>15.193877551020408</v>
+        <v>41.28260869565217</v>
       </c>
       <c r="P114" s="4" t="n">
         <v>1.0</v>
@@ -8531,7 +8583,7 @@
         <v>1.0</v>
       </c>
       <c r="R114" s="6" t="n">
-        <v>0.125</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S114" s="4" t="n">
         <v>0.0</v>
@@ -8543,15 +8595,15 @@
         <v>0.0</v>
       </c>
       <c r="V114" s="9" t="n">
-        <v>14.89</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
@@ -8560,76 +8612,74 @@
       </c>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F115" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-L</t>
+          <t>CS-LY181-LG907-M</t>
         </is>
       </c>
       <c r="G115" s="1" t="inlineStr">
         <is>
-          <t>B071119HN4</t>
+          <t>B073PQ5WVC</t>
         </is>
       </c>
       <c r="H115" s="4" t="n">
-        <v>12595.0</v>
+        <v>428.0</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="J115" s="6" t="n">
-        <v>0.0024612941643509328</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="K115" s="9" t="n">
-        <v>0.15806451612903227</v>
+        <v>0.21</v>
       </c>
       <c r="L115" s="9" t="n">
-        <v>4.9</v>
+        <v>0.21</v>
       </c>
       <c r="M115" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N115" s="6" t="n">
-        <v>0.32907991940899933</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N115"/>
       <c r="O115" s="5" t="n">
-        <v>3.0387755102040814</v>
+        <v>0.0</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q115" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R115" s="6" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="S115" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T115" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U115" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V115" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
@@ -8638,49 +8688,55 @@
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F116" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-2XL</t>
+          <t>CS-LY181-PI908-M</t>
         </is>
       </c>
       <c r="G116" s="1" t="inlineStr">
         <is>
-          <t>B071DJKWRB</t>
+          <t>B073PQHBRH</t>
         </is>
       </c>
       <c r="H116" s="4" t="n">
-        <v>19597.0</v>
+        <v>403.0</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J116" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K116"/>
+        <v>0.0024813895781637717</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>0.06</v>
+      </c>
       <c r="L116" s="9" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="M116" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N116"/>
-      <c r="O116"/>
+      <c r="O116" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P116" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q116" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R116"/>
+      <c r="R116" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S116" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -8696,10 +8752,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
@@ -8708,38 +8764,38 @@
       </c>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F117" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-XL</t>
+          <t>CS-LY181-PI908-XL</t>
         </is>
       </c>
       <c r="G117" s="1" t="inlineStr">
         <is>
-          <t>B071DJKQ1B</t>
+          <t>B073PQ9M5T</t>
         </is>
       </c>
       <c r="H117" s="4" t="n">
-        <v>5031.0</v>
+        <v>2392.0</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="J117" s="6" t="n">
-        <v>0.0013913734843967402</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.17923076923076925</v>
       </c>
       <c r="L117" s="9" t="n">
-        <v>1.0</v>
+        <v>2.33</v>
       </c>
       <c r="M117" s="9" t="n">
         <v>0.0</v>
@@ -8772,10 +8828,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
@@ -8784,76 +8840,74 @@
       </c>
       <c r="D118" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F118" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-3XL</t>
+          <t>CS-LY181-PI908-XXL</t>
         </is>
       </c>
       <c r="G118" s="1" t="inlineStr">
         <is>
-          <t>B0711149ZH</t>
+          <t>B073PPPDK9</t>
         </is>
       </c>
       <c r="H118" s="4" t="n">
-        <v>6502.0</v>
+        <v>486.0</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="J118" s="6" t="n">
-        <v>0.002306982466933251</v>
+        <v>0.00205761316872428</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>0.16066666666666668</v>
+        <v>0.21</v>
       </c>
       <c r="L118" s="9" t="n">
-        <v>2.41</v>
+        <v>0.21</v>
       </c>
       <c r="M118" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N118" s="6" t="n">
-        <v>0.1618535930154466</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N118"/>
       <c r="O118" s="5" t="n">
-        <v>6.178423236514523</v>
+        <v>0.0</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R118" s="6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="S118" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T118" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U118" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V118" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
@@ -8872,64 +8926,66 @@
       </c>
       <c r="F119" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-G912-L</t>
+          <t>CS-LY181-Sa911-M</t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
         <is>
-          <t>B073PPLXB3</t>
+          <t>B073PPQQSP</t>
         </is>
       </c>
       <c r="H119" s="4" t="n">
-        <v>639.0</v>
+        <v>1469.0</v>
       </c>
       <c r="I119" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J119" s="6" t="n">
+        <v>0.009530292716133424</v>
+      </c>
+      <c r="K119" s="9" t="n">
+        <v>0.19714285714285712</v>
+      </c>
+      <c r="L119" s="9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M119" s="9" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="N119" s="6" t="n">
+        <v>0.18535930154466082</v>
+      </c>
+      <c r="O119" s="5" t="n">
+        <v>5.394927536231885</v>
+      </c>
+      <c r="P119" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J119" s="6" t="n">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="K119" s="9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L119" s="9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M119" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P119" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q119" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R119" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S119" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T119" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U119" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V119" s="9" t="n">
-        <v>0.0</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
@@ -8948,28 +9004,28 @@
       </c>
       <c r="F120" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-LB916-L</t>
+          <t>CS-LY181-WR917-L</t>
         </is>
       </c>
       <c r="G120" s="1" t="inlineStr">
         <is>
-          <t>B073PQDRHR</t>
+          <t>B073PQ3N1Q</t>
         </is>
       </c>
       <c r="H120" s="4" t="n">
-        <v>1449.0</v>
+        <v>665.0</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J120" s="6" t="n">
-        <v>0.0013802622498274672</v>
+        <v>0.006015037593984963</v>
       </c>
       <c r="K120" s="9" t="n">
-        <v>0.21</v>
+        <v>0.155</v>
       </c>
       <c r="L120" s="9" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="M120" s="9" t="n">
         <v>0.0</v>
@@ -9002,10 +9058,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
@@ -9024,28 +9080,28 @@
       </c>
       <c r="F121" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-LB916-M</t>
+          <t>CS-LY181-WR917-M</t>
         </is>
       </c>
       <c r="G121" s="1" t="inlineStr">
         <is>
-          <t>B073PQ7Z9P</t>
+          <t>B073PPHCN1</t>
         </is>
       </c>
       <c r="H121" s="4" t="n">
-        <v>259.0</v>
+        <v>206.0</v>
       </c>
       <c r="I121" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J121" s="6" t="n">
-        <v>0.007722007722007722</v>
+        <v>0.0048543689320388345</v>
       </c>
       <c r="K121" s="9" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="L121" s="9" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="M121" s="9" t="n">
         <v>0.0</v>
@@ -9078,10 +9134,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
@@ -9100,28 +9156,28 @@
       </c>
       <c r="F122" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-LG907-M</t>
+          <t>CS-LY181-ZL918-M</t>
         </is>
       </c>
       <c r="G122" s="1" t="inlineStr">
         <is>
-          <t>B073PQ5WVC</t>
+          <t>B073PPT396</t>
         </is>
       </c>
       <c r="H122" s="4" t="n">
-        <v>181.0</v>
+        <v>1042.0</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J122" s="6" t="n">
-        <v>0.011049723756906075</v>
+        <v>0.0047984644913627635</v>
       </c>
       <c r="K122" s="9" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="L122" s="9" t="n">
-        <v>0.33</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="M122" s="9" t="n">
         <v>0.0</v>
@@ -9154,10 +9210,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
@@ -9166,38 +9222,38 @@
       </c>
       <c r="D123" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F123" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-PI908-M</t>
+          <t>WQS-BN-1503-BO-2XL</t>
         </is>
       </c>
       <c r="G123" s="1" t="inlineStr">
         <is>
-          <t>B073PQHBRH</t>
+          <t>B0788K3H99</t>
         </is>
       </c>
       <c r="H123" s="4" t="n">
-        <v>308.0</v>
+        <v>903.0</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="J123" s="6" t="n">
-        <v>0.0032467532467532465</v>
+        <v>0.008859357696566999</v>
       </c>
       <c r="K123" s="9" t="n">
-        <v>0.1</v>
+        <v>0.13625</v>
       </c>
       <c r="L123" s="9" t="n">
-        <v>0.1</v>
+        <v>1.09</v>
       </c>
       <c r="M123" s="9" t="n">
         <v>0.0</v>
@@ -9230,10 +9286,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
@@ -9242,76 +9298,74 @@
       </c>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F124" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-PI908-XL</t>
+          <t>WQS-BN-1503-BO-M</t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
         <is>
-          <t>B073PQ9M5T</t>
+          <t>B0788LLYXL</t>
         </is>
       </c>
       <c r="H124" s="4" t="n">
-        <v>1801.0</v>
+        <v>96.0</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="J124" s="6" t="n">
-        <v>0.00555247084952804</v>
+        <v>0.010416666666666664</v>
       </c>
       <c r="K124" s="9" t="n">
-        <v>0.151</v>
+        <v>0.2</v>
       </c>
       <c r="L124" s="9" t="n">
-        <v>1.51</v>
+        <v>0.2</v>
       </c>
       <c r="M124" s="9" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="N124" s="6" t="n">
-        <v>0.07951553449183782</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N124"/>
       <c r="O124" s="5" t="n">
-        <v>12.57615894039735</v>
+        <v>0.0</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R124" s="6" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="S124" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T124" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U124" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V124" s="9" t="n">
-        <v>18.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
@@ -9320,38 +9374,38 @@
       </c>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F125" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-PI908-XXL</t>
+          <t>WQS-BN-1503-GR-2XL</t>
         </is>
       </c>
       <c r="G125" s="1" t="inlineStr">
         <is>
-          <t>B073PPPDK9</t>
+          <t>B0788K4417</t>
         </is>
       </c>
       <c r="H125" s="4" t="n">
-        <v>576.0</v>
+        <v>575.0</v>
       </c>
       <c r="I125" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J125" s="6" t="n">
-        <v>0.001736111111111111</v>
+        <v>0.0017391304347826085</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L125" s="9" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="M125" s="9" t="n">
         <v>0.0</v>
@@ -9384,10 +9438,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
@@ -9396,38 +9450,38 @@
       </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F126" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-Sa911-M</t>
+          <t>WQS-BN-1503-GR-S</t>
         </is>
       </c>
       <c r="G126" s="1" t="inlineStr">
         <is>
-          <t>B073PPQQSP</t>
+          <t>B0788KFZ7Y</t>
         </is>
       </c>
       <c r="H126" s="4" t="n">
-        <v>227.0</v>
+        <v>795.0</v>
       </c>
       <c r="I126" s="4" t="n">
         <v>8.0</v>
       </c>
       <c r="J126" s="6" t="n">
-        <v>0.03524229074889868</v>
+        <v>0.010062893081761006</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>0.20875</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="L126" s="9" t="n">
-        <v>1.67</v>
+        <v>1.2799999999999998</v>
       </c>
       <c r="M126" s="9" t="n">
         <v>0.0</v>
@@ -9460,10 +9514,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
@@ -9472,35 +9526,35 @@
       </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F127" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-WR917-L</t>
+          <t>WQS-BN-1503-GR-XL</t>
         </is>
       </c>
       <c r="G127" s="1" t="inlineStr">
         <is>
-          <t>B073PQ3N1Q</t>
+          <t>B0788KZ4NT</t>
         </is>
       </c>
       <c r="H127" s="4" t="n">
-        <v>635.0</v>
+        <v>1528.0</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J127" s="6" t="n">
-        <v>0.0015748031496062992</v>
+        <v>0.0013089005235602095</v>
       </c>
       <c r="K127" s="9" t="n">
-        <v>0.23</v>
+        <v>0.115</v>
       </c>
       <c r="L127" s="9" t="n">
         <v>0.23</v>
@@ -9536,10 +9590,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
@@ -9548,26 +9602,26 @@
       </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F128" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-WR917-M</t>
+          <t>WQS-BN-1503-KO-L</t>
         </is>
       </c>
       <c r="G128" s="1" t="inlineStr">
         <is>
-          <t>B073PPHCN1</t>
+          <t>B0788K43ZX</t>
         </is>
       </c>
       <c r="H128" s="4" t="n">
-        <v>115.0</v>
+        <v>46.0</v>
       </c>
       <c r="I128" s="4" t="n">
         <v>0.0</v>
@@ -9606,10 +9660,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43276.0</v>
+        <v>43288.0</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
@@ -9618,38 +9672,38 @@
       </c>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F129" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-ZL918-M</t>
+          <t>WQS-BN-1503-KO-XL</t>
         </is>
       </c>
       <c r="G129" s="1" t="inlineStr">
         <is>
-          <t>B073PPT396</t>
+          <t>B0788M9Z9R</t>
         </is>
       </c>
       <c r="H129" s="4" t="n">
-        <v>1178.0</v>
+        <v>457.0</v>
       </c>
       <c r="I129" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J129" s="6" t="n">
-        <v>8.488964346349745E-4</v>
+        <v>0.0087527352297593</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="L129" s="9" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="M129" s="9" t="n">
         <v>0.0</v>
@@ -9682,10 +9736,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
@@ -9704,39 +9758,45 @@
       </c>
       <c r="F130" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-2XL</t>
+          <t>WQS-BN-1503-RO-2XL</t>
         </is>
       </c>
       <c r="G130" s="1" t="inlineStr">
         <is>
-          <t>B0788K3H99</t>
+          <t>B0788QHJLM</t>
         </is>
       </c>
       <c r="H130" s="4" t="n">
-        <v>186.0</v>
+        <v>350.0</v>
       </c>
       <c r="I130" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J130" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K130"/>
+        <v>0.011428571428571429</v>
+      </c>
+      <c r="K130" s="9" t="n">
+        <v>0.1375</v>
+      </c>
       <c r="L130" s="9" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="M130" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N130"/>
-      <c r="O130"/>
+      <c r="O130" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P130" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q130" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R130"/>
+      <c r="R130" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S130" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -9752,10 +9812,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
@@ -9774,28 +9834,28 @@
       </c>
       <c r="F131" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-M</t>
+          <t>WQS-BN-1503-RO-S</t>
         </is>
       </c>
       <c r="G131" s="1" t="inlineStr">
         <is>
-          <t>B0788LLYXL</t>
+          <t>B0788MQ753</t>
         </is>
       </c>
       <c r="H131" s="4" t="n">
-        <v>304.0</v>
+        <v>1389.0</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J131" s="6" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.0028797696184305254</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>0.125</v>
+        <v>0.1725</v>
       </c>
       <c r="L131" s="9" t="n">
-        <v>0.25</v>
+        <v>0.69</v>
       </c>
       <c r="M131" s="9" t="n">
         <v>0.0</v>
@@ -9828,10 +9888,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
@@ -9850,28 +9910,28 @@
       </c>
       <c r="F132" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-S</t>
+          <t>WQS-BN-1503-WO-2XL</t>
         </is>
       </c>
       <c r="G132" s="1" t="inlineStr">
         <is>
-          <t>B0788NC9MD</t>
+          <t>B0788MSRBP</t>
         </is>
       </c>
       <c r="H132" s="4" t="n">
-        <v>361.0</v>
+        <v>992.0</v>
       </c>
       <c r="I132" s="4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="J132" s="6" t="n">
-        <v>0.002770083102493075</v>
+        <v>0.006048387096774193</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="L132" s="9" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="M132" s="9" t="n">
         <v>0.0</v>
@@ -9904,10 +9964,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>43281.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
@@ -9926,66 +9986,56 @@
       </c>
       <c r="F133" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-XL</t>
+          <t>WQS-BN-1503-WO-L</t>
         </is>
       </c>
       <c r="G133" s="1" t="inlineStr">
         <is>
-          <t>B0788N9BWS</t>
+          <t>B0788GKNWC</t>
         </is>
       </c>
       <c r="H133" s="4" t="n">
-        <v>3218.0</v>
+        <v>0.0</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J133" s="6" t="n">
-        <v>0.003107520198881293</v>
-      </c>
-      <c r="K133" s="9" t="n">
-        <v>0.129</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133" s="9" t="n">
-        <v>1.29</v>
+        <v>0.0</v>
       </c>
       <c r="M133" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N133" s="6" t="n">
-        <v>0.08663532572196103</v>
-      </c>
-      <c r="O133" s="5" t="n">
-        <v>11.54263565891473</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R133" s="6" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R133"/>
       <c r="S133" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T133" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U133" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V133" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
@@ -10004,28 +10054,28 @@
       </c>
       <c r="F134" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-GR-2XL</t>
+          <t>WQS-BN-1503-WO-XL</t>
         </is>
       </c>
       <c r="G134" s="1" t="inlineStr">
         <is>
-          <t>B0788K4417</t>
+          <t>B0788LHPGK</t>
         </is>
       </c>
       <c r="H134" s="4" t="n">
-        <v>1239.0</v>
+        <v>2743.0</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="J134" s="6" t="n">
-        <v>0.004035512510088781</v>
+        <v>0.0036456434560699965</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>0.17</v>
+        <v>0.131</v>
       </c>
       <c r="L134" s="9" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="M134" s="9" t="n">
         <v>0.0</v>
@@ -10053,892 +10103,6 @@
         <v>0.0</v>
       </c>
       <c r="V134" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>43280.0</v>
-      </c>
-      <c r="B135" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D135" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E135" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F135" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-L</t>
-        </is>
-      </c>
-      <c r="G135" s="1" t="inlineStr">
-        <is>
-          <t>B0788JGZ5J</t>
-        </is>
-      </c>
-      <c r="H135" s="4" t="n">
-        <v>2951.0</v>
-      </c>
-      <c r="I135" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J135" s="6" t="n">
-        <v>0.0013554727211114877</v>
-      </c>
-      <c r="K135" s="9" t="n">
-        <v>0.15750000000000003</v>
-      </c>
-      <c r="L135" s="9" t="n">
-        <v>0.6300000000000001</v>
-      </c>
-      <c r="M135" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P135" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q135" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R135" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S135" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T135" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U135" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V135" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>43280.0</v>
-      </c>
-      <c r="B136" s="2" t="n">
-        <v>43280.0</v>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D136" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E136" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F136" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-M</t>
-        </is>
-      </c>
-      <c r="G136" s="1" t="inlineStr">
-        <is>
-          <t>B0788LXZHN</t>
-        </is>
-      </c>
-      <c r="H136" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I136" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J136" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K136"/>
-      <c r="L136" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M136" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q136" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R136"/>
-      <c r="S136" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T136" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U136" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V136" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B137" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E137" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F137" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-S</t>
-        </is>
-      </c>
-      <c r="G137" s="1" t="inlineStr">
-        <is>
-          <t>B0788KFZ7Y</t>
-        </is>
-      </c>
-      <c r="H137" s="4" t="n">
-        <v>645.0</v>
-      </c>
-      <c r="I137" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J137" s="6" t="n">
-        <v>0.0031007751937984496</v>
-      </c>
-      <c r="K137" s="9" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="L137" s="9" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M137" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P137" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q137" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R137" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S137" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T137" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U137" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V137" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B138" s="2" t="n">
-        <v>43280.0</v>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E138" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F138" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-XL</t>
-        </is>
-      </c>
-      <c r="G138" s="1" t="inlineStr">
-        <is>
-          <t>B0788KZ4NT</t>
-        </is>
-      </c>
-      <c r="H138" s="4" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="I138" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J138" s="6" t="n">
-        <v>0.010416666666666664</v>
-      </c>
-      <c r="K138" s="9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L138" s="9" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N138"/>
-      <c r="O138" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P138" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q138" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R138" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S138" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T138" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>43277.0</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E139" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F139" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-KO-L</t>
-        </is>
-      </c>
-      <c r="G139" s="1" t="inlineStr">
-        <is>
-          <t>B0788K43ZX</t>
-        </is>
-      </c>
-      <c r="H139" s="4" t="n">
-        <v>1495.0</v>
-      </c>
-      <c r="I139" s="4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J139" s="6" t="n">
-        <v>0.010033444816053512</v>
-      </c>
-      <c r="K139" s="9" t="n">
-        <v>0.13866666666666666</v>
-      </c>
-      <c r="L139" s="9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M139" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N139"/>
-      <c r="O139" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P139" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q139" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R139" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S139" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T139" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U139" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V139" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B140" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="C140" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D140" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E140" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F140" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-KO-XL</t>
-        </is>
-      </c>
-      <c r="G140" s="1" t="inlineStr">
-        <is>
-          <t>B0788M9Z9R</t>
-        </is>
-      </c>
-      <c r="H140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M140" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R140"/>
-      <c r="S140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T140" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U140" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V140" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B141" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C141" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D141" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E141" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F141" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-RO-2XL</t>
-        </is>
-      </c>
-      <c r="G141" s="1" t="inlineStr">
-        <is>
-          <t>B0788QHJLM</t>
-        </is>
-      </c>
-      <c r="H141" s="4" t="n">
-        <v>256.0</v>
-      </c>
-      <c r="I141" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J141" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K141"/>
-      <c r="L141" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M141" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N141"/>
-      <c r="O141"/>
-      <c r="P141" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q141" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R141"/>
-      <c r="S141" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T141" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U141" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V141" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B142" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C142" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D142" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E142" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F142" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-RO-S</t>
-        </is>
-      </c>
-      <c r="G142" s="1" t="inlineStr">
-        <is>
-          <t>B0788MQ753</t>
-        </is>
-      </c>
-      <c r="H142" s="4" t="n">
-        <v>623.0</v>
-      </c>
-      <c r="I142" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J142" s="6" t="n">
-        <v>0.0032102728731942215</v>
-      </c>
-      <c r="K142" s="9" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="L142" s="9" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M142" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N142"/>
-      <c r="O142" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P142" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q142" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R142" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S142" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T142" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U142" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V142" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B143" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D143" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E143" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F143" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-2XL</t>
-        </is>
-      </c>
-      <c r="G143" s="1" t="inlineStr">
-        <is>
-          <t>B0788MSRBP</t>
-        </is>
-      </c>
-      <c r="H143" s="4" t="n">
-        <v>601.0</v>
-      </c>
-      <c r="I143" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J143" s="6" t="n">
-        <v>0.0033277870216306153</v>
-      </c>
-      <c r="K143" s="9" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="L143" s="9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M143" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N143"/>
-      <c r="O143" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P143" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q143" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R143" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S143" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T143" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U143" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V143" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>43277.0</v>
-      </c>
-      <c r="B144" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="C144" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D144" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E144" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F144" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-L</t>
-        </is>
-      </c>
-      <c r="G144" s="1" t="inlineStr">
-        <is>
-          <t>B0788GKNWC</t>
-        </is>
-      </c>
-      <c r="H144" s="4" t="n">
-        <v>1671.0</v>
-      </c>
-      <c r="I144" s="4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J144" s="6" t="n">
-        <v>0.008378216636744464</v>
-      </c>
-      <c r="K144" s="9" t="n">
-        <v>0.12571428571428572</v>
-      </c>
-      <c r="L144" s="9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M144" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P144" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q144" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R144" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S144" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T144" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U144" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V144" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>43277.0</v>
-      </c>
-      <c r="C145" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D145" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E145" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F145" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-S</t>
-        </is>
-      </c>
-      <c r="G145" s="1" t="inlineStr">
-        <is>
-          <t>B0788NZKVF</t>
-        </is>
-      </c>
-      <c r="H145" s="4" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="I145" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J145" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K145"/>
-      <c r="L145" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M145" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N145"/>
-      <c r="O145"/>
-      <c r="P145" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q145" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R145"/>
-      <c r="S145" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T145" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U145" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V145" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C146" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D146" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E146" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F146" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-XL</t>
-        </is>
-      </c>
-      <c r="G146" s="1" t="inlineStr">
-        <is>
-          <t>B0788LHPGK</t>
-        </is>
-      </c>
-      <c r="H146" s="4" t="n">
-        <v>2608.0</v>
-      </c>
-      <c r="I146" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J146" s="6" t="n">
-        <v>0.0019171779141104294</v>
-      </c>
-      <c r="K146" s="9" t="n">
-        <v>0.17200000000000001</v>
-      </c>
-      <c r="L146" s="9" t="n">
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="M146" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N146"/>
-      <c r="O146" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P146" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q146" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R146" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S146" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T146" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U146" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V146" s="9" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/BiShang/ad/es/download_data/商品推广广告商品报告.xlsx
+++ b/BiShang/ad/es/download_data/商品推广广告商品报告.xlsx
@@ -84,24 +84,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="13.26953125" customWidth="true"/>
+    <col min="2" max="2" width="13.26953125" customWidth="true"/>
     <col min="3" max="3" width="4.29296875" customWidth="true"/>
     <col min="4" max="4" width="17.94921875" customWidth="true"/>
     <col min="5" max="5" width="7.80859375" customWidth="true"/>
-    <col min="6" max="6" width="24.640625" customWidth="true"/>
+    <col min="6" max="6" width="24.453125" customWidth="true"/>
     <col min="7" max="7" width="13.6953125" customWidth="true"/>
-    <col min="8" max="8" width="6.6875" customWidth="true"/>
+    <col min="8" max="8" width="5.48046875" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
-    <col min="12" max="12" width="7.9921875" customWidth="true"/>
+    <col min="12" max="12" width="6.8359375" customWidth="true"/>
     <col min="13" max="13" width="11.4453125" customWidth="true"/>
     <col min="14" max="14" width="16.27734375" customWidth="true"/>
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.6171875" customWidth="true"/>
+    <col min="18" max="18" width="8.87890625" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -253,19 +253,19 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2949.0</v>
+        <v>896.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.003051881993896236</v>
+        <v>0.0011160714285714285</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>0.04555555555555555</v>
+        <v>0.06</v>
       </c>
       <c r="L2" s="9" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="M2" s="9" t="n">
         <v>0.0</v>
@@ -298,10 +298,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -329,19 +329,19 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2734.0</v>
+        <v>124.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.008046817849305048</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0.08363636363636363</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>1.84</v>
+        <v>0.05</v>
       </c>
       <c r="M3" s="9" t="n">
         <v>0.0</v>
@@ -374,10 +374,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -405,19 +405,19 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>243.0</v>
+        <v>188.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.012345679012345678</v>
+        <v>0.010638297872340425</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.07666666666666666</v>
+        <v>0.085</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.22999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0.0</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -467,71 +467,69 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>17015</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-C0-M</t>
+          <t>BS-WHC19-W0-S</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B071GTKCRD</t>
+          <t>B072FQR5MZ</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3584.0</v>
+        <v>380.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.005859375</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0.13714285714285715</v>
+        <v>0.04</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>2.88</v>
+        <v>0.08</v>
       </c>
       <c r="M5" s="9" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.15254237288135594</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
       <c r="O5" s="5" t="n">
-        <v>6.555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>0.047619047619047616</v>
+        <v>0.0</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U5" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" s="9" t="n">
-        <v>18.88</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -550,28 +548,28 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-K0-M</t>
+          <t>BS-WH17015-P0-M</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B071GTJSMZ</t>
+          <t>B071KFGNBJ</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3003.0</v>
+        <v>7178.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.016317016317016316</v>
+        <v>0.00459738088604068</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.12142857142857141</v>
+        <v>0.14606060606060603</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>5.949999999999999</v>
+        <v>4.819999999999999</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0.0</v>
@@ -604,10 +602,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43283.0</v>
+        <v>43320.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43289.0</v>
+        <v>43325.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -626,66 +624,56 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-P0-M</t>
+          <t>BS-WH17015-ZL-M</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B071KFGNBJ</t>
+          <t>B072N7VJKP</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>7767.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>0.005664992918758852</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0.13113636363636363</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" s="9" t="n">
-        <v>5.77</v>
+        <v>0.0</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>56.97</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0.10128137616289275</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>9.873483535528596</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
       <c r="P7" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0.06818181818181818</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R7"/>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>56.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -694,55 +682,49 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>17015</t>
+          <t>084</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>BS-WH17015-ZL-M</t>
+          <t>CS-LY084-H10-S</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B072N7VJKP</t>
+          <t>B06XPV79C5</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12301.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>115.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.009348833428176571</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0.1274782608695652</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K8"/>
       <c r="L8" s="9" t="n">
-        <v>14.66</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N8"/>
-      <c r="O8" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O8"/>
       <c r="P8" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R8" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R8"/>
       <c r="S8" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -758,10 +740,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43288.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -780,16 +762,16 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H10-S</t>
+          <t>CS-LY084-H12-S</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B06XPV79C5</t>
+          <t>B06XPTLB92</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.0</v>
@@ -828,10 +810,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43284.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43287.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -850,16 +832,16 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H12-S</t>
+          <t>CS-LY084-H16-S</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B06XPTLB92</t>
+          <t>B06XYLG2DN</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0.0</v>
@@ -898,10 +880,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43287.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43287.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -915,44 +897,50 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H16-S</t>
+          <t>CS-LY181-WR917-S</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B06XYLG2DN</t>
+          <t>B073PQP9C9</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>1.0</v>
+        <v>716.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K11"/>
+        <v>0.0027932960893854745</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.22</v>
+      </c>
       <c r="L11" s="9" t="n">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N11"/>
-      <c r="O11"/>
+      <c r="O11" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P11" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11"/>
+      <c r="R11" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S11" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -968,10 +956,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -985,33 +973,33 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>CS-LY181-WR917-S</t>
+          <t>CS-LY170-G912-S</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B073PQP9C9</t>
+          <t>B073PPVWW3</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>909.0</v>
+        <v>5.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0033003300330033004</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>0.1366666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>0.41000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="9" t="n">
         <v>0.0</v>
@@ -1044,10 +1032,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1066,45 +1054,39 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>CS-LY170-G912-S</t>
+          <t>CS-LY170-PI908-S</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B073PPVWW3</t>
+          <t>B073PQMGW1</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>32.0</v>
+        <v>58.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K13"/>
       <c r="L13" s="9" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N13"/>
-      <c r="O13" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O13"/>
       <c r="P13" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R13" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R13"/>
       <c r="S13" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1120,10 +1102,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1137,50 +1119,44 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>085</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>CS-LY170-PI908-S</t>
+          <t>CS-LY085-G912-S</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B073PQMGW1</t>
+          <t>B06XYZW1W4</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>117.0</v>
+        <v>41.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>0.07</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K14"/>
       <c r="L14" s="9" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N14"/>
-      <c r="O14" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O14"/>
       <c r="P14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R14"/>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1196,10 +1172,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1218,16 +1194,16 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>CS-LY085-G912-S</t>
+          <t>CS-LY085-ZL918-S</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B06XYZW1W4</t>
+          <t>B06XZ1D6S1</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>274.0</v>
+        <v>19.0</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0.0</v>
@@ -1266,10 +1242,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1283,21 +1259,21 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>085</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>CS-LY085-ZL918-S</t>
+          <t>CS-LY171-LB916-S</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B06XZ1D6S1</t>
+          <t>B073PQ6BZ4</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>50.0</v>
+        <v>27.0</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0.0</v>
@@ -1336,10 +1312,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43286.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1348,55 +1324,49 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-1580-K0-M</t>
+          <t>CS-LY171-Sa911-S</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B01NBES3YP</t>
+          <t>B073PQXDQX</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1085.0</v>
+        <v>11.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.002764976958525346</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0.056666666666666664</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K17"/>
       <c r="L17" s="9" t="n">
-        <v>0.16999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N17"/>
-      <c r="O17" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O17"/>
       <c r="P17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R17" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R17"/>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1412,10 +1382,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1424,55 +1394,49 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-1580-NB-2XL</t>
+          <t>CS-LY171-ZL918-S</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B01NCEG6QW</t>
+          <t>B073PP7W37</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1118.0</v>
+        <v>18.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.008050089445438283</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0.08666666666666667</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K18"/>
       <c r="L18" s="9" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N18"/>
-      <c r="O18" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O18"/>
       <c r="P18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R18" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R18"/>
       <c r="S18" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1488,10 +1452,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1500,26 +1464,26 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>7223</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LB916-S</t>
+          <t>XZ-BS-YG7223Da4243</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B073PQ6BZ4</t>
+          <t>B01LZ1VBJE</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0.0</v>
@@ -1558,10 +1522,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1570,26 +1534,26 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>MX006</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-Sa911-S</t>
+          <t>XZ-WHMX006-G0-S</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B073PQXDQX</t>
+          <t>B075D4R6B4</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0.0</v>
@@ -1628,10 +1592,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1640,26 +1604,26 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Slippers-ZD</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>MX006</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-ZL918-S</t>
+          <t>XZ-WHMX006-R0-M</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B073PP7W37</t>
+          <t>B075D87GRR</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0.0</v>
@@ -1698,10 +1662,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1715,50 +1679,42 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>7223</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-YG7223Da4243</t>
+          <t>XZ-WH6606-BR-39</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B01LZ1VBJE</t>
+          <t>B07546TF8G</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>0.00625</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>0.06285714285714286</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
       <c r="L22" s="9" t="n">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N22"/>
-      <c r="O22" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O22"/>
       <c r="P22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R22" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R22"/>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1774,10 +1730,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1786,55 +1742,49 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>1010-AUTO</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>MX006</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>XZ-WHMX006-G0-S</t>
+          <t>LYQ-BS-K1010-P0-S</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B075D4R6B4</t>
+          <t>B017X47UK8</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>1285.0</v>
+        <v>5.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7.782101167315176E-4</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K23"/>
       <c r="L23" s="9" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="M23" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N23"/>
-      <c r="O23" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O23"/>
       <c r="P23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R23" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R23"/>
       <c r="S23" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1850,10 +1800,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1862,55 +1812,49 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>1010-AUTO</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>MX006</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>XZ-WHMX006-R0-M</t>
+          <t>LYQ-BS-K1010-R0-S</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B075D87GRR</t>
+          <t>B06XZ4THHH</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>1305.0</v>
+        <v>43.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0015325670498084294</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K24"/>
       <c r="L24" s="9" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N24"/>
-      <c r="O24" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O24"/>
       <c r="P24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R24" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R24"/>
       <c r="S24" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1926,10 +1870,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1938,38 +1882,38 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Slippers-ZD</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>XZ-WH6606-BR-39</t>
+          <t>XZ-BS-PW-2001-BG-36</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B07546TF8G</t>
+          <t>B01MQVW9DX</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>76.0</v>
+        <v>177.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.013157894736842105</v>
+        <v>0.011299435028248588</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>0.08</v>
+        <v>0.145</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="M25" s="9" t="n">
         <v>0.0</v>
@@ -2002,10 +1946,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2014,49 +1958,55 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>1010-AUTO</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>048</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-P0-S</t>
+          <t>LYQ-CSM048-G0-M</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B017X47UK8</t>
+          <t>B074NZXHN4</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>187.0</v>
+        <v>97.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K26"/>
+        <v>0.010309278350515462</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L26" s="9" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="M26" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N26"/>
-      <c r="O26"/>
+      <c r="O26" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26"/>
+      <c r="R26" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2072,10 +2022,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2084,55 +2034,49 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>1010-AUTO</t>
+          <t>LYQ-ZD</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>048</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-R0-S</t>
+          <t>LYQ-CSM048-R0-L</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B06XZ4THHH</t>
+          <t>B074P1P1WT</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>7673.0</v>
+        <v>41.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.003258178026847387</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>0.0684</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K27"/>
       <c r="L27" s="9" t="n">
-        <v>1.71</v>
+        <v>0.0</v>
       </c>
       <c r="M27" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N27"/>
-      <c r="O27" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O27"/>
       <c r="P27" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R27" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R27"/>
       <c r="S27" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2148,10 +2092,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2160,55 +2104,49 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1010-AUTO</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-BG-36</t>
+          <t>LYQ-BS-K1010-G7-XL</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B01MQVW9DX</t>
+          <t>B06XZ42T58</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>3244.0</v>
+        <v>13.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.006781750924784217</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>0.10772727272727273</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K28"/>
       <c r="L28" s="9" t="n">
-        <v>2.37</v>
+        <v>0.0</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N28"/>
-      <c r="O28" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O28"/>
       <c r="P28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R28"/>
       <c r="S28" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2224,10 +2162,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2236,55 +2174,49 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>1010-AUTO</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-N0-40</t>
+          <t>LYQ-BS-K1010-G0-M</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B01NAJ2DY7</t>
+          <t>B01MQPQHB5</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>1599.0</v>
+        <v>10.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0050031269543464665</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" s="9" t="n">
-        <v>1.04</v>
+        <v>0.0</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O29"/>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R29"/>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2300,10 +2232,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2317,50 +2249,44 @@
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>CS04</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-G0-M</t>
+          <t>LYQ-BS-CS04-CO-XL</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B074NZXHN4</t>
+          <t>B0761QMY9L</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>116.0</v>
+        <v>13.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.02586206896551724</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>0.06</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K30"/>
       <c r="L30" s="9" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O30"/>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R30"/>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2376,10 +2302,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2393,33 +2319,33 @@
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>CS04</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-K0-L</t>
+          <t>LYQ-BS-CS04-G0-L</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B074NY7C3Y</t>
+          <t>B0761RKMPH</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>115.0</v>
+        <v>86.0</v>
       </c>
       <c r="I31" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.008695652173913044</v>
+        <v>0.011627906976744186</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="M31" s="9" t="n">
         <v>0.0</v>
@@ -2452,10 +2378,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2469,21 +2395,21 @@
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>CS04</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>LYQ-CSM048-R0-L</t>
+          <t>LYQ-BS-CS04-GR-XL</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B074P1P1WT</t>
+          <t>B0761R7P9F</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>174.0</v>
+        <v>58.0</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>0.0</v>
@@ -2522,10 +2448,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2534,55 +2460,49 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>5119</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>EUTK-J02H-GR-14/16</t>
+          <t>YZ-BS-BShyl5119-YT-5XL</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B075TX4639</t>
+          <t>B01HFYMWA4</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>600.0</v>
+        <v>29.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0.07333333333333335</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K33"/>
       <c r="L33" s="9" t="n">
-        <v>0.22000000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="M33" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N33"/>
-      <c r="O33" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O33"/>
       <c r="P33" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R33" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R33"/>
       <c r="S33" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2598,10 +2518,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2610,76 +2530,68 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>EUTK-J02H-K0-18/20</t>
+          <t>BS-WH1731-R0-XXL</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B075V2248V</t>
+          <t>B06XZ13X21</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>2721.0</v>
+        <v>9.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.005145167217934583</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0.07571428571428572</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K34"/>
       <c r="L34" s="9" t="n">
-        <v>1.06</v>
+        <v>0.0</v>
       </c>
       <c r="M34" s="9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N34" s="6" t="n">
-        <v>0.08833333333333333</v>
-      </c>
-      <c r="O34" s="5" t="n">
-        <v>11.320754716981131</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
       <c r="P34" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R34" s="6" t="n">
-        <v>0.07142857142857142</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R34"/>
       <c r="S34" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" s="9" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43285.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2688,26 +2600,26 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-B28-5-L</t>
+          <t>WQS-BN-1503-GR-XL</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B071P6G6FV</t>
+          <t>B0788KZ4NT</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>126.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>0.0</v>
@@ -2746,10 +2658,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2758,55 +2670,49 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>WY 017</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>CS-LY166-K73-2-XL</t>
+          <t>WY-SB017-DG-S</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B072LTDQRC</t>
+          <t>B078NNHC7V</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>299.0</v>
+        <v>61.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.0033444816053511705</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K36"/>
       <c r="L36" s="9" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="M36" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N36"/>
-      <c r="O36" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O36"/>
       <c r="P36" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R36" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R36"/>
       <c r="S36" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2822,10 +2728,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2834,55 +2740,49 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>1010-AUTO</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>WY 017</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G7-XL</t>
+          <t>WY-SB017-LG-XL</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B06XZ42T58</t>
+          <t>B078NLT7K4</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>537.0</v>
+        <v>185.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.00931098696461825</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0.07599999999999998</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" s="9" t="n">
-        <v>0.37999999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O37"/>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R37"/>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2898,10 +2798,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2910,76 +2810,74 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>1010-AUTO</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>WY 017</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-K1010-G0-M</t>
+          <t>WY-SB017-NY-XXL</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B01MQPQHB5</t>
+          <t>B078NC5YWP</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>354.0</v>
+        <v>5.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.00847457627118644</v>
+        <v>0.2</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="M38" s="9" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N38" s="6" t="n">
-        <v>0.010101010101010102</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N38"/>
       <c r="O38" s="5" t="n">
-        <v>99.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>0.33333333333333326</v>
+        <v>0.0</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U38" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" s="9" t="n">
-        <v>9.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -2988,55 +2886,49 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>CS04</t>
+          <t>026</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-CO-XL</t>
+          <t>MY-SB026-DG-S</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B0761QMY9L</t>
+          <t>B078LTW124</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1099.0</v>
+        <v>26.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>9.099181073703368E-4</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K39"/>
       <c r="L39" s="9" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="M39" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N39"/>
-      <c r="O39" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O39"/>
       <c r="P39" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R39" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R39"/>
       <c r="S39" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3052,10 +2944,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3064,55 +2956,49 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>Jacket-AUTO</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>CS04</t>
+          <t>026</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-G0-L</t>
+          <t>MY-SB026-RD-S</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B0761RKMPH</t>
+          <t>B078M6S3S5</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>441.0</v>
+        <v>13.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.0045351473922902496</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0.115</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" s="9" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O40"/>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R40"/>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3128,10 +3014,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3140,38 +3026,38 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>LYQ-ZD</t>
+          <t>Swimwear-Auto</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>CS04</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>LYQ-BS-CS04-GR-XL</t>
+          <t>YZ-BS-5505K0-M</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B0761R7P9F</t>
+          <t>B071LFK69M</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>584.0</v>
+        <v>624.0</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>3.0</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>0.005136986301369863</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>0.12666666666666668</v>
+        <v>0.023333333333333334</v>
       </c>
       <c r="L41" s="9" t="n">
-        <v>0.38</v>
+        <v>0.07</v>
       </c>
       <c r="M41" s="9" t="n">
         <v>0.0</v>
@@ -3204,10 +3090,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3216,76 +3102,68 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>YZ-1703</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119-YH-4XL</t>
+          <t>YZ-BS-BKN1703-R0-L</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B01NCSVUOC</t>
+          <t>B06XCR3R6C</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>4687.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.004907190100277363</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>0.08652173913043477</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K42"/>
       <c r="L42" s="9" t="n">
-        <v>1.9899999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="M42" s="9" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="N42" s="6" t="n">
-        <v>0.04740352548832778</v>
-      </c>
-      <c r="O42" s="5" t="n">
-        <v>21.095477386934675</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
       <c r="P42" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R42" s="6" t="n">
-        <v>0.08695652173913043</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R42"/>
       <c r="S42" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U42" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" s="9" t="n">
-        <v>41.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43284.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3294,26 +3172,26 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119-YT-5XL</t>
+          <t>XZ-BS-PW-2001-G0-36</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B01HFYMWA4</t>
+          <t>B01MYZMV1J</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>8.0</v>
+        <v>138.0</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>0.0</v>
@@ -3352,10 +3230,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43286.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3364,38 +3242,38 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BShyl5119K03XL</t>
+          <t>XZ-BS-PW-2001-N0-36</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B01EJ5VUNW</t>
+          <t>B01N1S6RRW</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>6873.0</v>
+        <v>54.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.001745962461807071</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>0.08666666666666667</v>
+        <v>0.11</v>
       </c>
       <c r="L44" s="9" t="n">
-        <v>1.04</v>
+        <v>0.11</v>
       </c>
       <c r="M44" s="9" t="n">
         <v>0.0</v>
@@ -3428,10 +3306,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43285.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3440,76 +3318,68 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>2001-AUTO</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>BS-WH1731-R0-XXL</t>
+          <t>XZ-BS-PW-2001-R0-36</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B06XZ13X21</t>
+          <t>B01NBKHGA6</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>999.0</v>
+        <v>209.0</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.006006006006006006</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>0.09500000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K45"/>
       <c r="L45" s="9" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M45" s="9" t="n">
-        <v>38.98</v>
-      </c>
-      <c r="N45" s="6" t="n">
-        <v>0.014622883530015396</v>
-      </c>
-      <c r="O45" s="5" t="n">
-        <v>68.38596491228068</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R45" s="6" t="n">
-        <v>0.33333333333333326</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R45"/>
       <c r="S45" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U45" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="V45" s="9" t="n">
-        <v>38.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43286.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3518,55 +3388,49 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-PW2049-K0-S</t>
+          <t>BS-BN-1501-BO-3XL</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B06X95DMXZ</t>
+          <t>B06ZY9HV1B</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>970.0</v>
+        <v>11.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.006185567010309279</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>0.06</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K46"/>
       <c r="L46" s="9" t="n">
-        <v>0.36</v>
+        <v>0.0</v>
       </c>
       <c r="M46" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N46"/>
-      <c r="O46" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O46"/>
       <c r="P46" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R46" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R46"/>
       <c r="S46" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3582,10 +3446,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3594,55 +3458,49 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>XZ-Manual</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>MF360</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-HMMF360-BE-L</t>
+          <t>BS-BN-1501-BO-L</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B01N3L1AIZ</t>
+          <t>B071115242</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>888.0</v>
+        <v>97.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.005630630630630631</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>0.202</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K47"/>
       <c r="L47" s="9" t="n">
-        <v>1.01</v>
+        <v>0.0</v>
       </c>
       <c r="M47" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N47"/>
-      <c r="O47" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O47"/>
       <c r="P47" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R47" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R47"/>
       <c r="S47" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3658,10 +3516,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43287.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3670,55 +3528,49 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-GR-XL</t>
+          <t>BS-BN-1501-GR-4XL</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B0788KZ4NT</t>
+          <t>B071N9PLPJ</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>65.0</v>
+        <v>14.0</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>0.195</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K48"/>
       <c r="L48" s="9" t="n">
-        <v>0.39</v>
+        <v>0.0</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N48"/>
-      <c r="O48" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O48"/>
       <c r="P48" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R48" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R48"/>
       <c r="S48" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3734,10 +3586,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3746,55 +3598,49 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>1503+1501 Phrase</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>WQS-BN-1503-BO-M</t>
+          <t>BS-BN-1501-KO-2XL</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B0788LLYXL</t>
+          <t>B0711153ZT</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>0.23</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K49"/>
       <c r="L49" s="9" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="M49" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N49"/>
-      <c r="O49" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O49"/>
       <c r="P49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R49" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R49"/>
       <c r="S49" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3810,10 +3656,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3822,55 +3668,49 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>WY 017</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-DG-S</t>
+          <t>BS-BN-1501-KO-4XL</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B078NNHC7V</t>
+          <t>B0711158DY</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>999.0</v>
+        <v>2.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.001001001001001001</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>0.06</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K50"/>
       <c r="L50" s="9" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="M50" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N50"/>
-      <c r="O50" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O50"/>
       <c r="P50" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R50" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R50"/>
       <c r="S50" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3886,10 +3726,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3898,55 +3738,49 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>WY 017</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-LG-XL</t>
+          <t>BS-BN-1501-KO-L</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B078NLT7K4</t>
+          <t>B06ZY9HRMD</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>579.0</v>
+        <v>4.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0034542314335060447</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>0.24</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" s="9" t="n">
-        <v>0.48</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N51"/>
-      <c r="O51" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O51"/>
       <c r="P51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R51"/>
       <c r="S51" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3962,10 +3796,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3974,55 +3808,49 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>WY 017</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-NY-XXL</t>
+          <t>BS-BN-1501-RO-4XL</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B078NC5YWP</t>
+          <t>B071XXJL4R</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>739.0</v>
+        <v>5.0</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>0.0013531799729364004</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K52"/>
       <c r="L52" s="9" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="M52" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N52"/>
-      <c r="O52" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O52"/>
       <c r="P52" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R52" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R52"/>
       <c r="S52" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4038,10 +3866,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4050,55 +3878,49 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-DG-S</t>
+          <t>BS-BN-1501-RO-L</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B078LTW124</t>
+          <t>B071V2B5SZ</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>628.0</v>
+        <v>115.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.009554140127388535</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>0.22166666666666668</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K53"/>
       <c r="L53" s="9" t="n">
-        <v>1.33</v>
+        <v>0.0</v>
       </c>
       <c r="M53" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N53"/>
-      <c r="O53" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O53"/>
       <c r="P53" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R53"/>
       <c r="S53" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4114,10 +3936,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4126,55 +3948,49 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Jacket-AUTO</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-RD-S</t>
+          <t>BS-BN-1501-WO-3XL</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B078M6S3S5</t>
+          <t>B0711149ZH</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>574.0</v>
+        <v>28.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.006968641114982579</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>0.1925</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K54"/>
       <c r="L54" s="9" t="n">
-        <v>0.77</v>
+        <v>0.0</v>
       </c>
       <c r="M54" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N54"/>
-      <c r="O54" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O54"/>
       <c r="P54" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R54" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R54"/>
       <c r="S54" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4190,10 +4006,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4202,55 +4018,49 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-5505Da0L</t>
+          <t>BS-BN-1501-WO-4XL</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B013OSTKN2</t>
+          <t>B071Y6HHFS</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1231.0</v>
+        <v>11.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.006498781478472786</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>0.04125</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K55"/>
       <c r="L55" s="9" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="M55" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N55"/>
-      <c r="O55" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O55"/>
       <c r="P55" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R55" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R55"/>
       <c r="S55" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4266,10 +4076,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4278,55 +4088,49 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Swimwear-Auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-5505K0-M</t>
+          <t>CS-LY171-G912-L</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B071LFK69M</t>
+          <t>B073PQDCYM</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>356.0</v>
+        <v>9.0</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.005617977528089888</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K56"/>
       <c r="L56" s="9" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N56"/>
-      <c r="O56" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O56"/>
       <c r="P56" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R56" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R56"/>
       <c r="S56" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4342,10 +4146,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43285.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43285.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4354,26 +4158,26 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-M</t>
+          <t>CS-LY171-G912-M</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B06XCXKQP6</t>
+          <t>B073PPMXD1</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>37.0</v>
+        <v>15.0</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>0.0</v>
@@ -4412,10 +4216,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4424,26 +4228,26 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-S</t>
+          <t>CS-LY171-G912-S</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B06XCMWGD1</t>
+          <t>B073PP2Q5W</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>0.0</v>
@@ -4482,10 +4286,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43285.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43287.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4494,49 +4298,55 @@
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-XL</t>
+          <t>CS-LY171-LB916-L</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B06XD91JGL</t>
+          <t>B073PQ7JKT</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>43.0</v>
+        <v>90.0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K59"/>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="L59" s="9" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="M59" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N59"/>
-      <c r="O59"/>
+      <c r="O59" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P59" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R59"/>
+      <c r="R59" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S59" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4552,10 +4362,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43285.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4564,55 +4374,49 @@
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>YZ-1703</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>YZ-BS-BKN1703-R0-XS</t>
+          <t>CS-LY171-LB916-M</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B06XCR5MFR</t>
+          <t>B073PPWDT7</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>697.0</v>
+        <v>18.0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>0.00430416068866571</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>0.09333333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K60"/>
       <c r="L60" s="9" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="M60" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N60"/>
-      <c r="O60" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O60"/>
       <c r="P60" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R60" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R60"/>
       <c r="S60" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4628,10 +4432,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4640,55 +4444,49 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-C0-36</t>
+          <t>CS-LY171-PI908-L</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B01N1S6RLP</t>
+          <t>B073PPNNFC</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>11114.0</v>
+        <v>8.0</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>0.00314918121288465</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>0.09742857142857143</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K61"/>
       <c r="L61" s="9" t="n">
-        <v>3.41</v>
+        <v>0.0</v>
       </c>
       <c r="M61" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N61"/>
-      <c r="O61" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O61"/>
       <c r="P61" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R61" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R61"/>
       <c r="S61" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4704,10 +4502,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4716,55 +4514,49 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-G0-36</t>
+          <t>CS-LY171-PI908-M</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B01MYZMV1J</t>
+          <t>B073PPNMZS</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>1095.0</v>
+        <v>6.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.0027397260273972603</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>0.09000000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K62"/>
       <c r="L62" s="9" t="n">
-        <v>0.27</v>
+        <v>0.0</v>
       </c>
       <c r="M62" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N62"/>
-      <c r="O62" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O62"/>
       <c r="P62" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R62" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R62"/>
       <c r="S62" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4780,10 +4572,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4792,38 +4584,38 @@
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-N0-36</t>
+          <t>CS-LY171-PI908-S</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B01N1S6RRW</t>
+          <t>B073PQ7M22</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>6594.0</v>
+        <v>49.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>9.099181073703368E-4</v>
+        <v>0.020408163265306124</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>0.10000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="L63" s="9" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M63" s="9" t="n">
         <v>0.0</v>
@@ -4856,10 +4648,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4868,55 +4660,49 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>2001-AUTO</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>XZ-BS-PW-2001-R0-36</t>
+          <t>CS-LY171-Sa911-M</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B01NBKHGA6</t>
+          <t>B073PQD5PP</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>7437.0</v>
+        <v>2.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.0026892564205997036</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>0.131</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K64"/>
       <c r="L64" s="9" t="n">
-        <v>2.62</v>
+        <v>0.0</v>
       </c>
       <c r="M64" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N64"/>
-      <c r="O64" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O64"/>
       <c r="P64" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R64" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R64"/>
       <c r="S64" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4932,10 +4718,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4944,55 +4730,49 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-3XL</t>
+          <t>CS-LY171-W902-L</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HV1B</t>
+          <t>B073PQLSS5</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>2208.0</v>
+        <v>3.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.004076086956521739</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>0.12222222222222223</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K65"/>
       <c r="L65" s="9" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="M65" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N65"/>
-      <c r="O65" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O65"/>
       <c r="P65" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R65" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R65"/>
       <c r="S65" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5008,10 +4788,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -5020,55 +4800,49 @@
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-L</t>
+          <t>CS-LY171-WR917-L</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B071115242</t>
+          <t>B073PPRQLJ</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>1455.0</v>
+        <v>2.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>6.872852233676976E-4</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K66"/>
       <c r="L66" s="9" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="M66" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N66"/>
-      <c r="O66" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O66"/>
       <c r="P66" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R66" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R66"/>
       <c r="S66" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5084,10 +4858,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43285.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5096,55 +4870,49 @@
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-BO-XL</t>
+          <t>CS-LY171-WR917-M</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B071RGN23Z</t>
+          <t>B073PPM5K5</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>340.0</v>
+        <v>2.0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>0.0029411764705882353</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>0.11</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K67"/>
       <c r="L67" s="9" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
       <c r="M67" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N67"/>
-      <c r="O67" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O67"/>
       <c r="P67" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R67" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R67"/>
       <c r="S67" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5160,10 +4928,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43285.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5172,65 +4940,57 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-2XL</t>
+          <t>CS-LY171-WR917-S</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B071N9PNNJ</t>
+          <t>B073PQ2K9M</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>10146.0</v>
+        <v>2.0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.0013798541297062883</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>0.12357142857142857</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K68"/>
       <c r="L68" s="9" t="n">
-        <v>1.73</v>
+        <v>0.0</v>
       </c>
       <c r="M68" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N68" s="6" t="n">
-        <v>0.11618535930154465</v>
-      </c>
-      <c r="O68" s="5" t="n">
-        <v>8.606936416184972</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R68" s="6" t="n">
-        <v>0.07142857142857142</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R68"/>
       <c r="S68" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T68" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U68" s="9" t="n">
-        <v>14.89</v>
+        <v>0.0</v>
       </c>
       <c r="V68" s="9" t="n">
         <v>0.0</v>
@@ -5238,10 +4998,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5250,55 +5010,49 @@
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-3XL</t>
+          <t>CS-LY171-WR917-XL</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B071Y6DGRB</t>
+          <t>B073PQ3DVN</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>2597.0</v>
+        <v>7.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.0015402387370042356</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>0.15500000000000003</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K69"/>
       <c r="L69" s="9" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M69" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N69"/>
-      <c r="O69" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O69"/>
       <c r="P69" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R69" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R69"/>
       <c r="S69" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5314,10 +5068,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5326,55 +5080,49 @@
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-4XL</t>
+          <t>CS-LY171-WR917-XXL</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B071N9PLPJ</t>
+          <t>B073PQ61JH</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>660.0</v>
+        <v>12.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>0.0030303030303030303</v>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>0.07500000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K70"/>
       <c r="L70" s="9" t="n">
-        <v>0.15000000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="M70" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N70"/>
-      <c r="O70" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O70"/>
       <c r="P70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q70" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R70" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R70"/>
       <c r="S70" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5390,10 +5138,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5402,55 +5150,49 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-GR-L</t>
+          <t>CS-LY171-ZL918-M</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B071119HN4</t>
+          <t>B073PPHGGQ</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>3114.0</v>
+        <v>4.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>0.002890173410404624</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>0.10666666666666667</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K71"/>
       <c r="L71" s="9" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M71" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N71"/>
-      <c r="O71" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O71"/>
       <c r="P71" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q71" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R71" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R71"/>
       <c r="S71" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5466,10 +5208,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43284.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5478,55 +5220,49 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-2XL</t>
+          <t>CS-LY171-ZL918-XL</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B0711153ZT</t>
+          <t>B073PQCX9Z</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>0.11</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K72"/>
       <c r="L72" s="9" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
       <c r="M72" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N72"/>
-      <c r="O72" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O72"/>
       <c r="P72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R72" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R72"/>
       <c r="S72" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5542,10 +5278,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5554,7 +5290,7 @@
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
@@ -5564,45 +5300,39 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-3XL</t>
+          <t>BS-BN-1501-BO-3XL</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B071N9PTC4</t>
+          <t>B06ZY9HV1B</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>598.0</v>
+        <v>127.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>0.006688963210702341</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K73"/>
       <c r="L73" s="9" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="M73" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N73"/>
-      <c r="O73" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O73"/>
       <c r="P73" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R73" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R73"/>
       <c r="S73" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5618,10 +5348,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5630,7 +5360,7 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>1503+1501 Phrase</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
@@ -5640,28 +5370,28 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-4XL</t>
+          <t>BS-BN-1501-WO-3XL</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B0711158DY</t>
+          <t>B0711149ZH</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>2408.0</v>
+        <v>661.0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>8.305647840531562E-4</v>
+        <v>0.0015128593040847202</v>
       </c>
       <c r="K74" s="9" t="n">
-        <v>0.15000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="L74" s="9" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="M74" s="9" t="n">
         <v>0.0</v>
@@ -5694,10 +5424,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5706,26 +5436,26 @@
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-L</t>
+          <t>CS-LY181-G912-L</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HRMD</t>
+          <t>B073PPLXB3</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>695.0</v>
+        <v>291.0</v>
       </c>
       <c r="I75" s="4" t="n">
         <v>0.0</v>
@@ -5764,10 +5494,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5776,38 +5506,38 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-KO-XL</t>
+          <t>CS-LY181-LB916-L</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B071XX591N</t>
+          <t>B073PQDRHR</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>4836.0</v>
+        <v>427.0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>0.0014474772539288668</v>
+        <v>0.00468384074941452</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>0.12000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L76" s="9" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M76" s="9" t="n">
         <v>0.0</v>
@@ -5840,10 +5570,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43283.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5852,49 +5582,55 @@
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-2XL</t>
+          <t>CS-LY181-WR917-L</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B071DJKWRB</t>
+          <t>B073PQ3N1Q</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>97.0</v>
+        <v>43.0</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K77"/>
+        <v>0.023255813953488372</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>0.21</v>
+      </c>
       <c r="L77" s="9" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="M77" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N77"/>
-      <c r="O77"/>
+      <c r="O77" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P77" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R77"/>
+      <c r="R77" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S77" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5910,10 +5646,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43289.0</v>
+        <v>43319.0</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
@@ -5922,38 +5658,38 @@
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>1503+1501-auto</t>
+          <t>MEN-SHIRT</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-3XL</t>
+          <t>CS-LY181-WR917-M</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>B06ZY9HTD9</t>
+          <t>B073PPHCN1</t>
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>1360.0</v>
+        <v>534.0</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>0.0029411764705882353</v>
+        <v>0.005617977528089888</v>
       </c>
       <c r="K78" s="9" t="n">
-        <v>0.1275</v>
+        <v>0.14333333333333334</v>
       </c>
       <c r="L78" s="9" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="M78" s="9" t="n">
         <v>0.0</v>
@@ -5986,10 +5722,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43285.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
@@ -6003,21 +5739,21 @@
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-4XL</t>
+          <t>WQS-BN-1503-GR-2XL</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>B071XXJL4R</t>
+          <t>B0788K4417</t>
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>269.0</v>
+        <v>35.0</v>
       </c>
       <c r="I79" s="4" t="n">
         <v>0.0</v>
@@ -6056,10 +5792,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
@@ -6073,33 +5809,33 @@
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-L</t>
+          <t>WQS-BN-1503-GR-S</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>B071V2B5SZ</t>
+          <t>B0788KFZ7Y</t>
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>1779.0</v>
+        <v>92.0</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>0.0022484541877459247</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="K80" s="9" t="n">
-        <v>0.07750000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L80" s="9" t="n">
-        <v>0.31000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="M80" s="9" t="n">
         <v>0.0</v>
@@ -6132,10 +5868,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43286.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
@@ -6149,50 +5885,44 @@
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-RO-XL</t>
+          <t>WQS-BN-1503-GR-XL</t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>B071DJKQ1B</t>
+          <t>B0788KZ4NT</t>
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>934.0</v>
+        <v>6.0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>0.0010706638115631692</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K81"/>
       <c r="L81" s="9" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="M81" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N81"/>
-      <c r="O81" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O81"/>
       <c r="P81" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R81" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R81"/>
       <c r="S81" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6208,10 +5938,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
@@ -6225,21 +5955,21 @@
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-3XL</t>
+          <t>WQS-BN-1503-RO-2XL</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>B0711149ZH</t>
+          <t>B0788QHJLM</t>
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>1117.0</v>
+        <v>4.0</v>
       </c>
       <c r="I82" s="4" t="n">
         <v>0.0</v>
@@ -6278,10 +6008,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
@@ -6295,21 +6025,21 @@
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-4XL</t>
+          <t>WQS-BN-1503-RO-M</t>
         </is>
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>B071Y6HHFS</t>
+          <t>B0788LK2N3</t>
         </is>
       </c>
       <c r="H83" s="4" t="n">
-        <v>1198.0</v>
+        <v>102.0</v>
       </c>
       <c r="I83" s="4" t="n">
         <v>0.0</v>
@@ -6348,10 +6078,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
@@ -6365,50 +6095,44 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-L</t>
+          <t>WQS-BN-1503-RO-XL</t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>B0711154HM</t>
+          <t>B0788L4FX6</t>
         </is>
       </c>
       <c r="H84" s="4" t="n">
-        <v>884.0</v>
+        <v>31.0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>0.0011312217194570137</v>
-      </c>
-      <c r="K84" s="9" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K84"/>
       <c r="L84" s="9" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="M84" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N84"/>
-      <c r="O84" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O84"/>
       <c r="P84" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q84" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R84" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R84"/>
       <c r="S84" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6424,10 +6148,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43287.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
@@ -6441,50 +6165,44 @@
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
-          <t>BS-BN-1501-WO-XL</t>
+          <t>WQS-BN-1503-WO-2XL</t>
         </is>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t>B071RGNDPC</t>
+          <t>B0788MSRBP</t>
         </is>
       </c>
       <c r="H85" s="4" t="n">
-        <v>906.0</v>
+        <v>18.0</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>0.003311258278145696</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>0.09666666666666668</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K85"/>
       <c r="L85" s="9" t="n">
-        <v>0.29000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="M85" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="N85"/>
-      <c r="O85" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O85"/>
       <c r="P85" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q85" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R85" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R85"/>
       <c r="S85" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6500,10 +6218,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43283.0</v>
+        <v>43318.0</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43289.0</v>
+        <v>43318.0</v>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
@@ -6512,26 +6230,26 @@
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>MEN-SHIRT</t>
+          <t>1503+1501-auto</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-G912-L</t>
+          <t>WQS-BN-1503-WO-XL</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>B073PQDCYM</t>
+          <t>B0788LHPGK</t>
         </is>
       </c>
       <c r="H86" s="4" t="n">
-        <v>31.0</v>
+        <v>60.0</v>
       </c>
       <c r="I86" s="4" t="n">
         <v>0.0</v>
@@ -6565,3544 +6283,6 @@
         <v>0.0</v>
       </c>
       <c r="V86" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F87" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-G912-M</t>
-        </is>
-      </c>
-      <c r="G87" s="1" t="inlineStr">
-        <is>
-          <t>B073PPMXD1</t>
-        </is>
-      </c>
-      <c r="H87" s="4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J87" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K87"/>
-      <c r="L87" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R87"/>
-      <c r="S87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U87" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V87" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F88" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-G912-S</t>
-        </is>
-      </c>
-      <c r="G88" s="1" t="inlineStr">
-        <is>
-          <t>B073PP2Q5W</t>
-        </is>
-      </c>
-      <c r="H88" s="4" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J88" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K88"/>
-      <c r="L88" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M88" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R88"/>
-      <c r="S88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T88" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U88" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V88" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F89" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-LB916-L</t>
-        </is>
-      </c>
-      <c r="G89" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ7JKT</t>
-        </is>
-      </c>
-      <c r="H89" s="4" t="n">
-        <v>381.0</v>
-      </c>
-      <c r="I89" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J89" s="6" t="n">
-        <v>0.0026246719160104987</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L89" s="9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M89" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P89" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q89" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R89" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S89" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T89" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U89" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V89" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F90" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-LB916-M</t>
-        </is>
-      </c>
-      <c r="G90" s="1" t="inlineStr">
-        <is>
-          <t>B073PPWDT7</t>
-        </is>
-      </c>
-      <c r="H90" s="4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J90" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K90"/>
-      <c r="L90" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M90" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R90"/>
-      <c r="S90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U90" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V90" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C91" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E91" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F91" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-LB916-XXL</t>
-        </is>
-      </c>
-      <c r="G91" s="1" t="inlineStr">
-        <is>
-          <t>B073PPFLNM</t>
-        </is>
-      </c>
-      <c r="H91" s="4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I91" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J91" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K91"/>
-      <c r="L91" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M91" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q91" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R91"/>
-      <c r="S91" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T91" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U91" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V91" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D92" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F92" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-LG907-S</t>
-        </is>
-      </c>
-      <c r="G92" s="1" t="inlineStr">
-        <is>
-          <t>B073PPT3Z6</t>
-        </is>
-      </c>
-      <c r="H92" s="4" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="I92" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J92" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K92"/>
-      <c r="L92" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M92" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q92" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R92"/>
-      <c r="S92" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T92" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U92" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V92" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F93" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-PI908-L</t>
-        </is>
-      </c>
-      <c r="G93" s="1" t="inlineStr">
-        <is>
-          <t>B073PPNNFC</t>
-        </is>
-      </c>
-      <c r="H93" s="4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I93" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J93" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K93"/>
-      <c r="L93" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M93" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q93" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R93"/>
-      <c r="S93" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T93" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U93" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V93" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E94" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F94" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-PI908-M</t>
-        </is>
-      </c>
-      <c r="G94" s="1" t="inlineStr">
-        <is>
-          <t>B073PPNMZS</t>
-        </is>
-      </c>
-      <c r="H94" s="4" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J94" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K94"/>
-      <c r="L94" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M94" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R94"/>
-      <c r="S94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U94" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V94" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E95" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F95" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-PI908-S</t>
-        </is>
-      </c>
-      <c r="G95" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ7M22</t>
-        </is>
-      </c>
-      <c r="H95" s="4" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="I95" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J95" s="6" t="n">
-        <v>0.023809523809523808</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L95" s="9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M95" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P95" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q95" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R95" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S95" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T95" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U95" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V95" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C96" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E96" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F96" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-Sa911-M</t>
-        </is>
-      </c>
-      <c r="G96" s="1" t="inlineStr">
-        <is>
-          <t>B073PQD5PP</t>
-        </is>
-      </c>
-      <c r="H96" s="4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I96" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J96" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K96"/>
-      <c r="L96" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M96" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q96" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R96"/>
-      <c r="S96" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T96" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U96" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V96" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C97" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E97" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F97" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-W902-L</t>
-        </is>
-      </c>
-      <c r="G97" s="1" t="inlineStr">
-        <is>
-          <t>B073PQLSS5</t>
-        </is>
-      </c>
-      <c r="H97" s="4" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="I97" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J97" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K97"/>
-      <c r="L97" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M97" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q97" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R97"/>
-      <c r="S97" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T97" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U97" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V97" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D98" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E98" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F98" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-WR917-L</t>
-        </is>
-      </c>
-      <c r="G98" s="1" t="inlineStr">
-        <is>
-          <t>B073PPRQLJ</t>
-        </is>
-      </c>
-      <c r="H98" s="4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I98" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J98" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K98"/>
-      <c r="L98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q98" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R98"/>
-      <c r="S98" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T98" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C99" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D99" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E99" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F99" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-WR917-M</t>
-        </is>
-      </c>
-      <c r="G99" s="1" t="inlineStr">
-        <is>
-          <t>B073PPM5K5</t>
-        </is>
-      </c>
-      <c r="H99" s="4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I99" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J99" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K99"/>
-      <c r="L99" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M99" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q99" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R99"/>
-      <c r="S99" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T99" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U99" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V99" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43284.0</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C100" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D100" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E100" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F100" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-WR917-S</t>
-        </is>
-      </c>
-      <c r="G100" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ2K9M</t>
-        </is>
-      </c>
-      <c r="H100" s="4" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I100" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J100" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K100"/>
-      <c r="L100" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M100" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q100" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R100"/>
-      <c r="S100" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T100" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U100" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V100" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43284.0</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C101" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D101" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E101" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F101" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-WR917-XL</t>
-        </is>
-      </c>
-      <c r="G101" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ3DVN</t>
-        </is>
-      </c>
-      <c r="H101" s="4" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I101" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J101" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K101"/>
-      <c r="L101" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M101" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q101" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R101"/>
-      <c r="S101" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T101" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U101" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V101" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C102" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D102" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E102" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F102" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-WR917-XXL</t>
-        </is>
-      </c>
-      <c r="G102" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ61JH</t>
-        </is>
-      </c>
-      <c r="H102" s="4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J102" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K102"/>
-      <c r="L102" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M102" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R102"/>
-      <c r="S102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U102" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V102" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D103" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E103" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F103" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-ZL918-L</t>
-        </is>
-      </c>
-      <c r="G103" s="1" t="inlineStr">
-        <is>
-          <t>B073PPB8RP</t>
-        </is>
-      </c>
-      <c r="H103" s="4" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="I103" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J103" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K103"/>
-      <c r="L103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q103" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R103"/>
-      <c r="S103" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T103" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D104" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E104" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F104" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-ZL918-M</t>
-        </is>
-      </c>
-      <c r="G104" s="1" t="inlineStr">
-        <is>
-          <t>B073PPHGGQ</t>
-        </is>
-      </c>
-      <c r="H104" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I104" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J104" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K104"/>
-      <c r="L104" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M104" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q104" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R104"/>
-      <c r="S104" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T104" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U104" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V104" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E105" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="F105" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY171-ZL918-XL</t>
-        </is>
-      </c>
-      <c r="G105" s="1" t="inlineStr">
-        <is>
-          <t>B073PQCX9Z</t>
-        </is>
-      </c>
-      <c r="H105" s="4" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I105" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J105" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K105"/>
-      <c r="L105" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M105" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q105" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R105"/>
-      <c r="S105" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T105" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U105" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V105" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D106" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E106" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F106" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-BO-3XL</t>
-        </is>
-      </c>
-      <c r="G106" s="1" t="inlineStr">
-        <is>
-          <t>B06ZY9HV1B</t>
-        </is>
-      </c>
-      <c r="H106" s="4" t="n">
-        <v>10075.0</v>
-      </c>
-      <c r="I106" s="4" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="J106" s="6" t="n">
-        <v>0.0025806451612903226</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>0.1703846153846154</v>
-      </c>
-      <c r="L106" s="9" t="n">
-        <v>4.430000000000001</v>
-      </c>
-      <c r="M106" s="9" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="N106" s="6" t="n">
-        <v>0.14875755540631297</v>
-      </c>
-      <c r="O106" s="5" t="n">
-        <v>6.722347629796839</v>
-      </c>
-      <c r="P106" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q106" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R106" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="S106" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T106" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U106" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="V106" s="9" t="n">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E107" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F107" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-GR-3XL</t>
-        </is>
-      </c>
-      <c r="G107" s="1" t="inlineStr">
-        <is>
-          <t>B071Y6DGRB</t>
-        </is>
-      </c>
-      <c r="H107" s="4" t="n">
-        <v>11156.0</v>
-      </c>
-      <c r="I107" s="4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J107" s="6" t="n">
-        <v>0.0014342058085335247</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>0.140625</v>
-      </c>
-      <c r="L107" s="9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M107" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N107" s="6" t="n">
-        <v>0.1511081262592344</v>
-      </c>
-      <c r="O107" s="5" t="n">
-        <v>6.617777777777778</v>
-      </c>
-      <c r="P107" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q107" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R107" s="6" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="S107" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T107" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U107" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V107" s="9" t="n">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C108" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E108" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F108" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-GR-L</t>
-        </is>
-      </c>
-      <c r="G108" s="1" t="inlineStr">
-        <is>
-          <t>B071119HN4</t>
-        </is>
-      </c>
-      <c r="H108" s="4" t="n">
-        <v>26646.0</v>
-      </c>
-      <c r="I108" s="4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J108" s="6" t="n">
-        <v>8.256398708999475E-4</v>
-      </c>
-      <c r="K108" s="9" t="n">
-        <v>0.18772727272727271</v>
-      </c>
-      <c r="L108" s="9" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="M108" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N108" s="6" t="n">
-        <v>0.277367360644728</v>
-      </c>
-      <c r="O108" s="5" t="n">
-        <v>3.6053268765133173</v>
-      </c>
-      <c r="P108" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q108" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R108" s="6" t="n">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="S108" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T108" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U108" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V108" s="9" t="n">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="C109" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D109" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E109" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F109" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-RO-2XL</t>
-        </is>
-      </c>
-      <c r="G109" s="1" t="inlineStr">
-        <is>
-          <t>B071DJKWRB</t>
-        </is>
-      </c>
-      <c r="H109" s="4" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="I109" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J109" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K109"/>
-      <c r="L109" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M109" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N109" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O109"/>
-      <c r="P109" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q109" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R109"/>
-      <c r="S109" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T109" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U109" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V109" s="9" t="n">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>43286.0</v>
-      </c>
-      <c r="C110" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E110" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F110" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-RO-XL</t>
-        </is>
-      </c>
-      <c r="G110" s="1" t="inlineStr">
-        <is>
-          <t>B071DJKQ1B</t>
-        </is>
-      </c>
-      <c r="H110" s="4" t="n">
-        <v>2808.0</v>
-      </c>
-      <c r="I110" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J110" s="6" t="n">
-        <v>7.122507122507123E-4</v>
-      </c>
-      <c r="K110" s="9" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="L110" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M110" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P110" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q110" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R110" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S110" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T110" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U110" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V110" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D111" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501 Phrase</t>
-        </is>
-      </c>
-      <c r="E111" s="1" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="F111" s="1" t="inlineStr">
-        <is>
-          <t>BS-BN-1501-WO-3XL</t>
-        </is>
-      </c>
-      <c r="G111" s="1" t="inlineStr">
-        <is>
-          <t>B0711149ZH</t>
-        </is>
-      </c>
-      <c r="H111" s="4" t="n">
-        <v>8382.0</v>
-      </c>
-      <c r="I111" s="4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J111" s="6" t="n">
-        <v>0.00190885230255309</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>0.158125</v>
-      </c>
-      <c r="L111" s="9" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="M111" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P111" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q111" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R111" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S111" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T111" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U111" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V111" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C112" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E112" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F112" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-G912-L</t>
-        </is>
-      </c>
-      <c r="G112" s="1" t="inlineStr">
-        <is>
-          <t>B073PPLXB3</t>
-        </is>
-      </c>
-      <c r="H112" s="4" t="n">
-        <v>551.0</v>
-      </c>
-      <c r="I112" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J112" s="6" t="n">
-        <v>0.003629764065335753</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L112" s="9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M112" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N112"/>
-      <c r="O112" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P112" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q112" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R112" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S112" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T112" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U112" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V112" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E113" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F113" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-LB916-L</t>
-        </is>
-      </c>
-      <c r="G113" s="1" t="inlineStr">
-        <is>
-          <t>B073PQDRHR</t>
-        </is>
-      </c>
-      <c r="H113" s="4" t="n">
-        <v>427.0</v>
-      </c>
-      <c r="I113" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J113" s="6" t="n">
-        <v>0.00234192037470726</v>
-      </c>
-      <c r="K113" s="9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L113" s="9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M113" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P113" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q113" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R113" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S113" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T113" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U113" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V113" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D114" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E114" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F114" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-LB916-M</t>
-        </is>
-      </c>
-      <c r="G114" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ7Z9P</t>
-        </is>
-      </c>
-      <c r="H114" s="4" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="I114" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J114" s="6" t="n">
-        <v>0.021897810218978103</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>0.15333333333333335</v>
-      </c>
-      <c r="L114" s="9" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M114" s="9" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="N114" s="6" t="n">
-        <v>0.024223275408109535</v>
-      </c>
-      <c r="O114" s="5" t="n">
-        <v>41.28260869565217</v>
-      </c>
-      <c r="P114" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q114" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R114" s="6" t="n">
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="S114" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T114" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U114" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V114" s="9" t="n">
-        <v>18.99</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E115" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F115" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-LG907-M</t>
-        </is>
-      </c>
-      <c r="G115" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ5WVC</t>
-        </is>
-      </c>
-      <c r="H115" s="4" t="n">
-        <v>428.0</v>
-      </c>
-      <c r="I115" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J115" s="6" t="n">
-        <v>0.002336448598130841</v>
-      </c>
-      <c r="K115" s="9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L115" s="9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M115" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N115"/>
-      <c r="O115" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P115" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q115" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R115" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S115" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T115" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U115" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V115" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C116" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D116" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E116" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F116" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-PI908-M</t>
-        </is>
-      </c>
-      <c r="G116" s="1" t="inlineStr">
-        <is>
-          <t>B073PQHBRH</t>
-        </is>
-      </c>
-      <c r="H116" s="4" t="n">
-        <v>403.0</v>
-      </c>
-      <c r="I116" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J116" s="6" t="n">
-        <v>0.0024813895781637717</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L116" s="9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M116" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N116"/>
-      <c r="O116" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P116" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q116" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R116" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S116" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T116" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U116" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V116" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E117" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F117" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-PI908-XL</t>
-        </is>
-      </c>
-      <c r="G117" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ9M5T</t>
-        </is>
-      </c>
-      <c r="H117" s="4" t="n">
-        <v>2392.0</v>
-      </c>
-      <c r="I117" s="4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J117" s="6" t="n">
-        <v>0.005434782608695652</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>0.17923076923076925</v>
-      </c>
-      <c r="L117" s="9" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="M117" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P117" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q117" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R117" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S117" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T117" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U117" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V117" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C118" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E118" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F118" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-PI908-XXL</t>
-        </is>
-      </c>
-      <c r="G118" s="1" t="inlineStr">
-        <is>
-          <t>B073PPPDK9</t>
-        </is>
-      </c>
-      <c r="H118" s="4" t="n">
-        <v>486.0</v>
-      </c>
-      <c r="I118" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J118" s="6" t="n">
-        <v>0.00205761316872428</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L118" s="9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M118" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P118" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q118" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R118" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S118" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T118" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U118" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V118" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E119" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F119" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-Sa911-M</t>
-        </is>
-      </c>
-      <c r="G119" s="1" t="inlineStr">
-        <is>
-          <t>B073PPQQSP</t>
-        </is>
-      </c>
-      <c r="H119" s="4" t="n">
-        <v>1469.0</v>
-      </c>
-      <c r="I119" s="4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J119" s="6" t="n">
-        <v>0.009530292716133424</v>
-      </c>
-      <c r="K119" s="9" t="n">
-        <v>0.19714285714285712</v>
-      </c>
-      <c r="L119" s="9" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="M119" s="9" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="N119" s="6" t="n">
-        <v>0.18535930154466082</v>
-      </c>
-      <c r="O119" s="5" t="n">
-        <v>5.394927536231885</v>
-      </c>
-      <c r="P119" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q119" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R119" s="6" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="S119" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T119" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U119" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V119" s="9" t="n">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E120" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F120" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-WR917-L</t>
-        </is>
-      </c>
-      <c r="G120" s="1" t="inlineStr">
-        <is>
-          <t>B073PQ3N1Q</t>
-        </is>
-      </c>
-      <c r="H120" s="4" t="n">
-        <v>665.0</v>
-      </c>
-      <c r="I120" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J120" s="6" t="n">
-        <v>0.006015037593984963</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="L120" s="9" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M120" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P120" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q120" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R120" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S120" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T120" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U120" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V120" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D121" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E121" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F121" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-WR917-M</t>
-        </is>
-      </c>
-      <c r="G121" s="1" t="inlineStr">
-        <is>
-          <t>B073PPHCN1</t>
-        </is>
-      </c>
-      <c r="H121" s="4" t="n">
-        <v>206.0</v>
-      </c>
-      <c r="I121" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J121" s="6" t="n">
-        <v>0.0048543689320388345</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L121" s="9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P121" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q121" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R121" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S121" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T121" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D122" s="1" t="inlineStr">
-        <is>
-          <t>MEN-SHIRT</t>
-        </is>
-      </c>
-      <c r="E122" s="1" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="F122" s="1" t="inlineStr">
-        <is>
-          <t>CS-LY181-ZL918-M</t>
-        </is>
-      </c>
-      <c r="G122" s="1" t="inlineStr">
-        <is>
-          <t>B073PPT396</t>
-        </is>
-      </c>
-      <c r="H122" s="4" t="n">
-        <v>1042.0</v>
-      </c>
-      <c r="I122" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J122" s="6" t="n">
-        <v>0.0047984644913627635</v>
-      </c>
-      <c r="K122" s="9" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="L122" s="9" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="M122" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P122" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q122" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R122" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S122" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T122" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U122" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V122" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D123" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E123" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F123" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-BO-2XL</t>
-        </is>
-      </c>
-      <c r="G123" s="1" t="inlineStr">
-        <is>
-          <t>B0788K3H99</t>
-        </is>
-      </c>
-      <c r="H123" s="4" t="n">
-        <v>903.0</v>
-      </c>
-      <c r="I123" s="4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J123" s="6" t="n">
-        <v>0.008859357696566999</v>
-      </c>
-      <c r="K123" s="9" t="n">
-        <v>0.13625</v>
-      </c>
-      <c r="L123" s="9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M123" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N123"/>
-      <c r="O123" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P123" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q123" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R123" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S123" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T123" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U123" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V123" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E124" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F124" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-BO-M</t>
-        </is>
-      </c>
-      <c r="G124" s="1" t="inlineStr">
-        <is>
-          <t>B0788LLYXL</t>
-        </is>
-      </c>
-      <c r="H124" s="4" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="I124" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J124" s="6" t="n">
-        <v>0.010416666666666664</v>
-      </c>
-      <c r="K124" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L124" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M124" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N124"/>
-      <c r="O124" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P124" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q124" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R124" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S124" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T124" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U124" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V124" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D125" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E125" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F125" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-2XL</t>
-        </is>
-      </c>
-      <c r="G125" s="1" t="inlineStr">
-        <is>
-          <t>B0788K4417</t>
-        </is>
-      </c>
-      <c r="H125" s="4" t="n">
-        <v>575.0</v>
-      </c>
-      <c r="I125" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J125" s="6" t="n">
-        <v>0.0017391304347826085</v>
-      </c>
-      <c r="K125" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L125" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M125" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P125" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q125" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R125" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S125" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T125" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U125" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V125" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D126" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E126" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F126" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-S</t>
-        </is>
-      </c>
-      <c r="G126" s="1" t="inlineStr">
-        <is>
-          <t>B0788KFZ7Y</t>
-        </is>
-      </c>
-      <c r="H126" s="4" t="n">
-        <v>795.0</v>
-      </c>
-      <c r="I126" s="4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J126" s="6" t="n">
-        <v>0.010062893081761006</v>
-      </c>
-      <c r="K126" s="9" t="n">
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="L126" s="9" t="n">
-        <v>1.2799999999999998</v>
-      </c>
-      <c r="M126" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N126"/>
-      <c r="O126" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P126" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q126" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R126" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S126" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T126" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U126" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V126" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>43287.0</v>
-      </c>
-      <c r="B127" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D127" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E127" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F127" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-GR-XL</t>
-        </is>
-      </c>
-      <c r="G127" s="1" t="inlineStr">
-        <is>
-          <t>B0788KZ4NT</t>
-        </is>
-      </c>
-      <c r="H127" s="4" t="n">
-        <v>1528.0</v>
-      </c>
-      <c r="I127" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J127" s="6" t="n">
-        <v>0.0013089005235602095</v>
-      </c>
-      <c r="K127" s="9" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="L127" s="9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M127" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P127" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q127" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R127" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S127" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T127" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U127" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V127" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B128" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D128" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E128" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F128" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-KO-L</t>
-        </is>
-      </c>
-      <c r="G128" s="1" t="inlineStr">
-        <is>
-          <t>B0788K43ZX</t>
-        </is>
-      </c>
-      <c r="H128" s="4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="I128" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J128" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K128"/>
-      <c r="L128" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M128" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128"/>
-      <c r="P128" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q128" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R128"/>
-      <c r="S128" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T128" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U128" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V128" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>43288.0</v>
-      </c>
-      <c r="B129" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C129" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E129" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F129" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-KO-XL</t>
-        </is>
-      </c>
-      <c r="G129" s="1" t="inlineStr">
-        <is>
-          <t>B0788M9Z9R</t>
-        </is>
-      </c>
-      <c r="H129" s="4" t="n">
-        <v>457.0</v>
-      </c>
-      <c r="I129" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J129" s="6" t="n">
-        <v>0.0087527352297593</v>
-      </c>
-      <c r="K129" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L129" s="9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M129" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N129"/>
-      <c r="O129" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P129" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q129" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R129" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S129" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T129" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U129" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V129" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E130" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F130" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-RO-2XL</t>
-        </is>
-      </c>
-      <c r="G130" s="1" t="inlineStr">
-        <is>
-          <t>B0788QHJLM</t>
-        </is>
-      </c>
-      <c r="H130" s="4" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="I130" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J130" s="6" t="n">
-        <v>0.011428571428571429</v>
-      </c>
-      <c r="K130" s="9" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="L130" s="9" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M130" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N130"/>
-      <c r="O130" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P130" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q130" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R130" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S130" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T130" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U130" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V130" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B131" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D131" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E131" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F131" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-RO-S</t>
-        </is>
-      </c>
-      <c r="G131" s="1" t="inlineStr">
-        <is>
-          <t>B0788MQ753</t>
-        </is>
-      </c>
-      <c r="H131" s="4" t="n">
-        <v>1389.0</v>
-      </c>
-      <c r="I131" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J131" s="6" t="n">
-        <v>0.0028797696184305254</v>
-      </c>
-      <c r="K131" s="9" t="n">
-        <v>0.1725</v>
-      </c>
-      <c r="L131" s="9" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="M131" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N131"/>
-      <c r="O131" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P131" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q131" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R131" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S131" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T131" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U131" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V131" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B132" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E132" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F132" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-2XL</t>
-        </is>
-      </c>
-      <c r="G132" s="1" t="inlineStr">
-        <is>
-          <t>B0788MSRBP</t>
-        </is>
-      </c>
-      <c r="H132" s="4" t="n">
-        <v>992.0</v>
-      </c>
-      <c r="I132" s="4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J132" s="6" t="n">
-        <v>0.006048387096774193</v>
-      </c>
-      <c r="K132" s="9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L132" s="9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M132" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N132"/>
-      <c r="O132" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P132" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q132" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R132" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S132" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T132" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U132" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V132" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B133" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D133" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E133" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F133" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-L</t>
-        </is>
-      </c>
-      <c r="G133" s="1" t="inlineStr">
-        <is>
-          <t>B0788GKNWC</t>
-        </is>
-      </c>
-      <c r="H133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M133" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N133"/>
-      <c r="O133"/>
-      <c r="P133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R133"/>
-      <c r="S133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T133" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U133" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V133" s="9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>43283.0</v>
-      </c>
-      <c r="B134" s="2" t="n">
-        <v>43289.0</v>
-      </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <t>1503+1501-auto</t>
-        </is>
-      </c>
-      <c r="E134" s="1" t="inlineStr">
-        <is>
-          <t>1503</t>
-        </is>
-      </c>
-      <c r="F134" s="1" t="inlineStr">
-        <is>
-          <t>WQS-BN-1503-WO-XL</t>
-        </is>
-      </c>
-      <c r="G134" s="1" t="inlineStr">
-        <is>
-          <t>B0788LHPGK</t>
-        </is>
-      </c>
-      <c r="H134" s="4" t="n">
-        <v>2743.0</v>
-      </c>
-      <c r="I134" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J134" s="6" t="n">
-        <v>0.0036456434560699965</v>
-      </c>
-      <c r="K134" s="9" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="L134" s="9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M134" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P134" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q134" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R134" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S134" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T134" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U134" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V134" s="9" t="n">
         <v>0.0</v>
       </c>
     </row>
